--- a/app/config/tables/VAC/forms/VAC/VAC.xlsx
+++ b/app/config/tables/VAC/forms/VAC/VAC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973B78D4-435E-4C86-9310-74F9C31B8D43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5471BB7-766B-4A2A-B074-E016216110EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="606">
   <si>
     <t>setting_name</t>
   </si>
@@ -343,9 +343,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>VISITDATA</t>
   </si>
   <si>
     <t xml:space="preserve">Yes </t>
@@ -1926,6 +1923,12 @@
   </si>
   <si>
     <t>Vacinas - mulhers</t>
+  </si>
+  <si>
+    <t>VISITID</t>
+  </si>
+  <si>
+    <t>VISITDATE</t>
   </si>
 </sst>
 </file>
@@ -2379,7 +2382,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2395,7 +2398,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2403,10 +2406,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D5" t="s">
         <v>603</v>
-      </c>
-      <c r="D5" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2537,7 +2540,7 @@
         <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -2550,7 +2553,7 @@
         <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -2563,7 +2566,7 @@
         <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" s="11"/>
     </row>
@@ -2582,7 +2585,7 @@
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2725,10 +2728,10 @@
         <v>75</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -2800,7 +2803,7 @@
         <v>61</v>
       </c>
       <c r="I30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -2811,7 +2814,7 @@
         <v>65</v>
       </c>
       <c r="I31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -2822,7 +2825,7 @@
         <v>68</v>
       </c>
       <c r="I32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2838,7 +2841,7 @@
         <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2849,7 +2852,7 @@
         <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2860,7 +2863,7 @@
         <v>92</v>
       </c>
       <c r="F36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2882,7 +2885,7 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3028,10 +3031,10 @@
         <v>100</v>
       </c>
       <c r="G55" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -3103,7 +3106,7 @@
         <v>89</v>
       </c>
       <c r="I61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -3114,7 +3117,7 @@
         <v>93</v>
       </c>
       <c r="I62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -3125,7 +3128,7 @@
         <v>91</v>
       </c>
       <c r="I63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -3138,10 +3141,10 @@
         <v>79</v>
       </c>
       <c r="E65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3149,10 +3152,10 @@
         <v>81</v>
       </c>
       <c r="E66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3160,10 +3163,10 @@
         <v>79</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3179,13 +3182,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s">
         <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3201,7 +3204,7 @@
         <v>53</v>
       </c>
       <c r="F72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G72" t="s">
         <v>55</v>
@@ -3220,7 +3223,7 @@
         <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3233,10 +3236,10 @@
         <v>50</v>
       </c>
       <c r="G76" t="s">
+        <v>148</v>
+      </c>
+      <c r="H76" t="s">
         <v>149</v>
-      </c>
-      <c r="H76" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3247,7 +3250,7 @@
         <v>60</v>
       </c>
       <c r="F77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G77" t="s">
         <v>62</v>
@@ -3264,7 +3267,7 @@
         <v>64</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G78" t="s">
         <v>66</v>
@@ -3278,7 +3281,7 @@
         <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G79" t="s">
         <v>69</v>
@@ -3325,13 +3328,13 @@
         <v>74</v>
       </c>
       <c r="F86" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G86" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H86" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
@@ -3339,7 +3342,7 @@
         <v>52</v>
       </c>
       <c r="C87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
@@ -3350,7 +3353,7 @@
         <v>60</v>
       </c>
       <c r="F88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G88" t="s">
         <v>62</v>
@@ -3367,7 +3370,7 @@
         <v>64</v>
       </c>
       <c r="F89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G89" t="s">
         <v>66</v>
@@ -3381,7 +3384,7 @@
         <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G90" t="s">
         <v>69</v>
@@ -3400,10 +3403,10 @@
         <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -3411,10 +3414,10 @@
         <v>42</v>
       </c>
       <c r="F93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
@@ -3422,10 +3425,10 @@
         <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -3438,10 +3441,10 @@
         <v>79</v>
       </c>
       <c r="E96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3449,10 +3452,10 @@
         <v>81</v>
       </c>
       <c r="E97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3460,10 +3463,10 @@
         <v>79</v>
       </c>
       <c r="E98" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3479,13 +3482,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B101" t="s">
         <v>52</v>
       </c>
       <c r="C101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3501,7 +3504,7 @@
         <v>53</v>
       </c>
       <c r="F103" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G103" t="s">
         <v>96</v>
@@ -3520,7 +3523,7 @@
         <v>52</v>
       </c>
       <c r="C105" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3533,10 +3536,10 @@
         <v>50</v>
       </c>
       <c r="G107" t="s">
+        <v>167</v>
+      </c>
+      <c r="H107" t="s">
         <v>168</v>
-      </c>
-      <c r="H107" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3547,7 +3550,7 @@
         <v>60</v>
       </c>
       <c r="F108" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G108" t="s">
         <v>62</v>
@@ -3564,7 +3567,7 @@
         <v>64</v>
       </c>
       <c r="F109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G109" t="s">
         <v>66</v>
@@ -3578,7 +3581,7 @@
         <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G110" t="s">
         <v>69</v>
@@ -3628,13 +3631,13 @@
         <v>74</v>
       </c>
       <c r="F117" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G117" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H117" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
@@ -3642,7 +3645,7 @@
         <v>52</v>
       </c>
       <c r="C118" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
@@ -3653,7 +3656,7 @@
         <v>60</v>
       </c>
       <c r="F119" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G119" t="s">
         <v>62</v>
@@ -3670,7 +3673,7 @@
         <v>64</v>
       </c>
       <c r="F120" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G120" t="s">
         <v>66</v>
@@ -3684,7 +3687,7 @@
         <v>32</v>
       </c>
       <c r="F121" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G121" t="s">
         <v>69</v>
@@ -3703,10 +3706,10 @@
         <v>42</v>
       </c>
       <c r="F123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I123" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -3714,10 +3717,10 @@
         <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I124" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
@@ -3725,10 +3728,10 @@
         <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I125" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
@@ -3741,10 +3744,10 @@
         <v>79</v>
       </c>
       <c r="E127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
@@ -3752,10 +3755,10 @@
         <v>81</v>
       </c>
       <c r="E128" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -3763,10 +3766,10 @@
         <v>79</v>
       </c>
       <c r="E129" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F129" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -3782,13 +3785,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B132" t="s">
         <v>52</v>
       </c>
       <c r="C132" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -3804,7 +3807,7 @@
         <v>53</v>
       </c>
       <c r="F134" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G134" t="s">
         <v>55</v>
@@ -3823,7 +3826,7 @@
         <v>52</v>
       </c>
       <c r="C136" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -3836,10 +3839,10 @@
         <v>50</v>
       </c>
       <c r="G138" t="s">
+        <v>193</v>
+      </c>
+      <c r="H138" t="s">
         <v>194</v>
-      </c>
-      <c r="H138" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -3850,7 +3853,7 @@
         <v>60</v>
       </c>
       <c r="F139" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G139" t="s">
         <v>62</v>
@@ -3867,7 +3870,7 @@
         <v>64</v>
       </c>
       <c r="F140" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G140" t="s">
         <v>66</v>
@@ -3881,7 +3884,7 @@
         <v>32</v>
       </c>
       <c r="F141" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G141" t="s">
         <v>69</v>
@@ -3928,13 +3931,13 @@
         <v>74</v>
       </c>
       <c r="F148" t="s">
+        <v>198</v>
+      </c>
+      <c r="G148" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G148" s="5" t="s">
+      <c r="H148" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
@@ -3942,7 +3945,7 @@
         <v>52</v>
       </c>
       <c r="C149" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
@@ -3953,7 +3956,7 @@
         <v>60</v>
       </c>
       <c r="F150" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G150" t="s">
         <v>62</v>
@@ -3970,7 +3973,7 @@
         <v>64</v>
       </c>
       <c r="F151" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G151" t="s">
         <v>66</v>
@@ -3984,7 +3987,7 @@
         <v>32</v>
       </c>
       <c r="F152" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G152" t="s">
         <v>69</v>
@@ -4003,10 +4006,10 @@
         <v>42</v>
       </c>
       <c r="F154" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I154" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
@@ -4014,10 +4017,10 @@
         <v>42</v>
       </c>
       <c r="F155" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I155" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
@@ -4025,10 +4028,10 @@
         <v>42</v>
       </c>
       <c r="F156" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I156" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
@@ -4041,10 +4044,10 @@
         <v>79</v>
       </c>
       <c r="E158" t="s">
+        <v>206</v>
+      </c>
+      <c r="F158" t="s">
         <v>207</v>
-      </c>
-      <c r="F158" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
@@ -4052,10 +4055,10 @@
         <v>81</v>
       </c>
       <c r="E159" t="s">
+        <v>208</v>
+      </c>
+      <c r="F159" t="s">
         <v>209</v>
-      </c>
-      <c r="F159" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
@@ -4063,10 +4066,10 @@
         <v>79</v>
       </c>
       <c r="E160" t="s">
+        <v>210</v>
+      </c>
+      <c r="F160" t="s">
         <v>211</v>
-      </c>
-      <c r="F160" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -4082,13 +4085,13 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B163" t="s">
         <v>52</v>
       </c>
       <c r="C163" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -4104,7 +4107,7 @@
         <v>53</v>
       </c>
       <c r="F165" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G165" t="s">
         <v>96</v>
@@ -4123,7 +4126,7 @@
         <v>52</v>
       </c>
       <c r="C167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -4136,10 +4139,10 @@
         <v>50</v>
       </c>
       <c r="G169" t="s">
+        <v>216</v>
+      </c>
+      <c r="H169" t="s">
         <v>217</v>
-      </c>
-      <c r="H169" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -4150,7 +4153,7 @@
         <v>60</v>
       </c>
       <c r="F170" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G170" t="s">
         <v>62</v>
@@ -4167,7 +4170,7 @@
         <v>64</v>
       </c>
       <c r="F171" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G171" t="s">
         <v>66</v>
@@ -4181,7 +4184,7 @@
         <v>32</v>
       </c>
       <c r="F172" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G172" t="s">
         <v>69</v>
@@ -4231,13 +4234,13 @@
         <v>74</v>
       </c>
       <c r="F179" t="s">
+        <v>221</v>
+      </c>
+      <c r="G179" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G179" s="5" t="s">
+      <c r="H179" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="H179" s="5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
@@ -4245,7 +4248,7 @@
         <v>52</v>
       </c>
       <c r="C180" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
@@ -4256,7 +4259,7 @@
         <v>60</v>
       </c>
       <c r="F181" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G181" t="s">
         <v>62</v>
@@ -4273,7 +4276,7 @@
         <v>64</v>
       </c>
       <c r="F182" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G182" t="s">
         <v>66</v>
@@ -4287,7 +4290,7 @@
         <v>32</v>
       </c>
       <c r="F183" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G183" t="s">
         <v>69</v>
@@ -4306,10 +4309,10 @@
         <v>42</v>
       </c>
       <c r="F185" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I185" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.25">
@@ -4317,10 +4320,10 @@
         <v>42</v>
       </c>
       <c r="F186" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I186" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
@@ -4328,10 +4331,10 @@
         <v>42</v>
       </c>
       <c r="F187" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I187" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
@@ -4344,10 +4347,10 @@
         <v>79</v>
       </c>
       <c r="E189" t="s">
+        <v>228</v>
+      </c>
+      <c r="F189" t="s">
         <v>229</v>
-      </c>
-      <c r="F189" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
@@ -4355,10 +4358,10 @@
         <v>81</v>
       </c>
       <c r="E190" t="s">
+        <v>230</v>
+      </c>
+      <c r="F190" t="s">
         <v>231</v>
-      </c>
-      <c r="F190" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
@@ -4366,10 +4369,10 @@
         <v>79</v>
       </c>
       <c r="E191" t="s">
+        <v>232</v>
+      </c>
+      <c r="F191" t="s">
         <v>233</v>
-      </c>
-      <c r="F191" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.25">
@@ -4385,13 +4388,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B194" t="s">
         <v>52</v>
       </c>
       <c r="C194" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -4407,7 +4410,7 @@
         <v>53</v>
       </c>
       <c r="F196" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G196" t="s">
         <v>55</v>
@@ -4426,7 +4429,7 @@
         <v>52</v>
       </c>
       <c r="C198" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -4439,10 +4442,10 @@
         <v>50</v>
       </c>
       <c r="G200" t="s">
+        <v>238</v>
+      </c>
+      <c r="H200" t="s">
         <v>239</v>
-      </c>
-      <c r="H200" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -4453,7 +4456,7 @@
         <v>60</v>
       </c>
       <c r="F201" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G201" t="s">
         <v>62</v>
@@ -4470,7 +4473,7 @@
         <v>64</v>
       </c>
       <c r="F202" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G202" t="s">
         <v>66</v>
@@ -4484,7 +4487,7 @@
         <v>32</v>
       </c>
       <c r="F203" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G203" t="s">
         <v>69</v>
@@ -4531,13 +4534,13 @@
         <v>74</v>
       </c>
       <c r="F210" t="s">
+        <v>243</v>
+      </c>
+      <c r="G210" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="G210" s="5" t="s">
+      <c r="H210" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="H210" s="5" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -4545,7 +4548,7 @@
         <v>52</v>
       </c>
       <c r="C211" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -4556,7 +4559,7 @@
         <v>60</v>
       </c>
       <c r="F212" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G212" t="s">
         <v>62</v>
@@ -4573,7 +4576,7 @@
         <v>64</v>
       </c>
       <c r="F213" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G213" t="s">
         <v>66</v>
@@ -4587,7 +4590,7 @@
         <v>32</v>
       </c>
       <c r="F214" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G214" t="s">
         <v>69</v>
@@ -4606,10 +4609,10 @@
         <v>42</v>
       </c>
       <c r="F216" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I216" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -4617,10 +4620,10 @@
         <v>42</v>
       </c>
       <c r="F217" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I217" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -4628,10 +4631,10 @@
         <v>42</v>
       </c>
       <c r="F218" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I218" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -4644,10 +4647,10 @@
         <v>79</v>
       </c>
       <c r="E220" t="s">
+        <v>250</v>
+      </c>
+      <c r="F220" t="s">
         <v>251</v>
-      </c>
-      <c r="F220" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -4655,10 +4658,10 @@
         <v>81</v>
       </c>
       <c r="E221" t="s">
+        <v>252</v>
+      </c>
+      <c r="F221" t="s">
         <v>253</v>
-      </c>
-      <c r="F221" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -4666,10 +4669,10 @@
         <v>79</v>
       </c>
       <c r="E222" t="s">
+        <v>254</v>
+      </c>
+      <c r="F222" t="s">
         <v>255</v>
-      </c>
-      <c r="F222" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -4685,13 +4688,13 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B225" t="s">
         <v>52</v>
       </c>
       <c r="C225" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -4707,7 +4710,7 @@
         <v>53</v>
       </c>
       <c r="F227" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G227" t="s">
         <v>96</v>
@@ -4726,7 +4729,7 @@
         <v>52</v>
       </c>
       <c r="C229" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -4739,10 +4742,10 @@
         <v>50</v>
       </c>
       <c r="G231" t="s">
+        <v>260</v>
+      </c>
+      <c r="H231" t="s">
         <v>261</v>
-      </c>
-      <c r="H231" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -4753,7 +4756,7 @@
         <v>60</v>
       </c>
       <c r="F232" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G232" t="s">
         <v>62</v>
@@ -4770,7 +4773,7 @@
         <v>64</v>
       </c>
       <c r="F233" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G233" t="s">
         <v>66</v>
@@ -4784,7 +4787,7 @@
         <v>32</v>
       </c>
       <c r="F234" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G234" t="s">
         <v>69</v>
@@ -4834,13 +4837,13 @@
         <v>74</v>
       </c>
       <c r="F241" t="s">
+        <v>265</v>
+      </c>
+      <c r="G241" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G241" s="5" t="s">
+      <c r="H241" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="H241" s="5" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -4848,7 +4851,7 @@
         <v>52</v>
       </c>
       <c r="C242" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -4859,7 +4862,7 @@
         <v>60</v>
       </c>
       <c r="F243" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G243" t="s">
         <v>62</v>
@@ -4876,7 +4879,7 @@
         <v>64</v>
       </c>
       <c r="F244" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G244" t="s">
         <v>66</v>
@@ -4890,7 +4893,7 @@
         <v>32</v>
       </c>
       <c r="F245" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G245" t="s">
         <v>69</v>
@@ -4909,10 +4912,10 @@
         <v>42</v>
       </c>
       <c r="F247" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I247" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -4920,10 +4923,10 @@
         <v>42</v>
       </c>
       <c r="F248" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I248" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -4931,10 +4934,10 @@
         <v>42</v>
       </c>
       <c r="F249" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I249" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -4947,10 +4950,10 @@
         <v>79</v>
       </c>
       <c r="E251" t="s">
+        <v>272</v>
+      </c>
+      <c r="F251" t="s">
         <v>273</v>
-      </c>
-      <c r="F251" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -4958,10 +4961,10 @@
         <v>81</v>
       </c>
       <c r="E252" t="s">
+        <v>274</v>
+      </c>
+      <c r="F252" t="s">
         <v>275</v>
-      </c>
-      <c r="F252" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -4969,10 +4972,10 @@
         <v>79</v>
       </c>
       <c r="E253" t="s">
+        <v>276</v>
+      </c>
+      <c r="F253" t="s">
         <v>277</v>
-      </c>
-      <c r="F253" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -4988,13 +4991,13 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B256" t="s">
         <v>52</v>
       </c>
       <c r="C256" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.25">
@@ -5010,7 +5013,7 @@
         <v>53</v>
       </c>
       <c r="F258" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G258" t="s">
         <v>55</v>
@@ -5029,7 +5032,7 @@
         <v>52</v>
       </c>
       <c r="C260" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.25">
@@ -5042,10 +5045,10 @@
         <v>50</v>
       </c>
       <c r="G262" t="s">
+        <v>282</v>
+      </c>
+      <c r="H262" t="s">
         <v>283</v>
-      </c>
-      <c r="H262" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.25">
@@ -5056,7 +5059,7 @@
         <v>60</v>
       </c>
       <c r="F263" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G263" t="s">
         <v>62</v>
@@ -5073,7 +5076,7 @@
         <v>64</v>
       </c>
       <c r="F264" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G264" t="s">
         <v>66</v>
@@ -5087,7 +5090,7 @@
         <v>32</v>
       </c>
       <c r="F265" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G265" t="s">
         <v>69</v>
@@ -5134,13 +5137,13 @@
         <v>74</v>
       </c>
       <c r="F272" t="s">
+        <v>287</v>
+      </c>
+      <c r="G272" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="G272" s="5" t="s">
+      <c r="H272" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="H272" s="5" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -5148,7 +5151,7 @@
         <v>52</v>
       </c>
       <c r="C273" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -5159,7 +5162,7 @@
         <v>60</v>
       </c>
       <c r="F274" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G274" t="s">
         <v>62</v>
@@ -5176,7 +5179,7 @@
         <v>64</v>
       </c>
       <c r="F275" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G275" t="s">
         <v>66</v>
@@ -5190,7 +5193,7 @@
         <v>32</v>
       </c>
       <c r="F276" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G276" t="s">
         <v>69</v>
@@ -5209,10 +5212,10 @@
         <v>42</v>
       </c>
       <c r="F278" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I278" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -5220,10 +5223,10 @@
         <v>42</v>
       </c>
       <c r="F279" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I279" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -5231,10 +5234,10 @@
         <v>42</v>
       </c>
       <c r="F280" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I280" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -5247,10 +5250,10 @@
         <v>79</v>
       </c>
       <c r="E282" t="s">
+        <v>294</v>
+      </c>
+      <c r="F282" t="s">
         <v>295</v>
-      </c>
-      <c r="F282" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -5258,10 +5261,10 @@
         <v>81</v>
       </c>
       <c r="E283" t="s">
+        <v>296</v>
+      </c>
+      <c r="F283" t="s">
         <v>297</v>
-      </c>
-      <c r="F283" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -5269,10 +5272,10 @@
         <v>79</v>
       </c>
       <c r="E284" t="s">
+        <v>298</v>
+      </c>
+      <c r="F284" t="s">
         <v>299</v>
-      </c>
-      <c r="F284" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -5288,13 +5291,13 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B287" t="s">
         <v>52</v>
       </c>
       <c r="C287" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -5310,7 +5313,7 @@
         <v>53</v>
       </c>
       <c r="F289" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G289" t="s">
         <v>96</v>
@@ -5329,7 +5332,7 @@
         <v>52</v>
       </c>
       <c r="C291" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
@@ -5342,10 +5345,10 @@
         <v>50</v>
       </c>
       <c r="G293" t="s">
+        <v>304</v>
+      </c>
+      <c r="H293" t="s">
         <v>305</v>
-      </c>
-      <c r="H293" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
@@ -5356,7 +5359,7 @@
         <v>60</v>
       </c>
       <c r="F294" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G294" t="s">
         <v>62</v>
@@ -5373,7 +5376,7 @@
         <v>64</v>
       </c>
       <c r="F295" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G295" t="s">
         <v>66</v>
@@ -5387,7 +5390,7 @@
         <v>32</v>
       </c>
       <c r="F296" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G296" t="s">
         <v>69</v>
@@ -5437,13 +5440,13 @@
         <v>74</v>
       </c>
       <c r="F303" t="s">
+        <v>309</v>
+      </c>
+      <c r="G303" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="G303" s="5" t="s">
+      <c r="H303" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="H303" s="5" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.25">
@@ -5451,7 +5454,7 @@
         <v>52</v>
       </c>
       <c r="C304" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -5462,7 +5465,7 @@
         <v>60</v>
       </c>
       <c r="F305" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G305" t="s">
         <v>62</v>
@@ -5479,7 +5482,7 @@
         <v>64</v>
       </c>
       <c r="F306" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G306" t="s">
         <v>66</v>
@@ -5493,7 +5496,7 @@
         <v>32</v>
       </c>
       <c r="F307" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G307" t="s">
         <v>69</v>
@@ -5512,10 +5515,10 @@
         <v>42</v>
       </c>
       <c r="F309" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I309" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -5523,10 +5526,10 @@
         <v>42</v>
       </c>
       <c r="F310" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I310" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -5534,10 +5537,10 @@
         <v>42</v>
       </c>
       <c r="F311" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I311" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -5550,10 +5553,10 @@
         <v>79</v>
       </c>
       <c r="E313" t="s">
+        <v>316</v>
+      </c>
+      <c r="F313" t="s">
         <v>317</v>
-      </c>
-      <c r="F313" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -5561,10 +5564,10 @@
         <v>81</v>
       </c>
       <c r="E314" t="s">
+        <v>318</v>
+      </c>
+      <c r="F314" t="s">
         <v>319</v>
-      </c>
-      <c r="F314" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -5572,10 +5575,10 @@
         <v>79</v>
       </c>
       <c r="E315" t="s">
+        <v>320</v>
+      </c>
+      <c r="F315" t="s">
         <v>321</v>
-      </c>
-      <c r="F315" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -5591,13 +5594,13 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B318" t="s">
         <v>52</v>
       </c>
       <c r="C318" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -5613,7 +5616,7 @@
         <v>53</v>
       </c>
       <c r="F320" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G320" t="s">
         <v>55</v>
@@ -5632,7 +5635,7 @@
         <v>52</v>
       </c>
       <c r="C322" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.25">
@@ -5645,10 +5648,10 @@
         <v>50</v>
       </c>
       <c r="G324" t="s">
+        <v>326</v>
+      </c>
+      <c r="H324" t="s">
         <v>327</v>
-      </c>
-      <c r="H324" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="325" spans="2:8" x14ac:dyDescent="0.25">
@@ -5659,7 +5662,7 @@
         <v>60</v>
       </c>
       <c r="F325" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G325" t="s">
         <v>62</v>
@@ -5676,7 +5679,7 @@
         <v>64</v>
       </c>
       <c r="F326" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G326" t="s">
         <v>66</v>
@@ -5690,7 +5693,7 @@
         <v>32</v>
       </c>
       <c r="F327" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G327" t="s">
         <v>69</v>
@@ -5737,13 +5740,13 @@
         <v>74</v>
       </c>
       <c r="F334" t="s">
+        <v>331</v>
+      </c>
+      <c r="G334" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="G334" s="5" t="s">
+      <c r="H334" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="H334" s="5" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="335" spans="2:8" x14ac:dyDescent="0.25">
@@ -5751,7 +5754,7 @@
         <v>52</v>
       </c>
       <c r="C335" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="336" spans="2:8" x14ac:dyDescent="0.25">
@@ -5762,7 +5765,7 @@
         <v>60</v>
       </c>
       <c r="F336" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G336" t="s">
         <v>62</v>
@@ -5779,7 +5782,7 @@
         <v>64</v>
       </c>
       <c r="F337" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G337" t="s">
         <v>66</v>
@@ -5793,7 +5796,7 @@
         <v>32</v>
       </c>
       <c r="F338" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G338" t="s">
         <v>69</v>
@@ -5812,10 +5815,10 @@
         <v>42</v>
       </c>
       <c r="F340" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I340" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -5823,10 +5826,10 @@
         <v>42</v>
       </c>
       <c r="F341" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I341" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -5834,10 +5837,10 @@
         <v>42</v>
       </c>
       <c r="F342" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I342" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -5850,10 +5853,10 @@
         <v>79</v>
       </c>
       <c r="E344" t="s">
+        <v>338</v>
+      </c>
+      <c r="F344" t="s">
         <v>339</v>
-      </c>
-      <c r="F344" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -5861,10 +5864,10 @@
         <v>81</v>
       </c>
       <c r="E345" t="s">
+        <v>340</v>
+      </c>
+      <c r="F345" t="s">
         <v>341</v>
-      </c>
-      <c r="F345" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -5872,10 +5875,10 @@
         <v>79</v>
       </c>
       <c r="E346" t="s">
+        <v>342</v>
+      </c>
+      <c r="F346" t="s">
         <v>343</v>
-      </c>
-      <c r="F346" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -5891,13 +5894,13 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B349" t="s">
         <v>52</v>
       </c>
       <c r="C349" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -5913,7 +5916,7 @@
         <v>53</v>
       </c>
       <c r="F351" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G351" t="s">
         <v>96</v>
@@ -5932,7 +5935,7 @@
         <v>52</v>
       </c>
       <c r="C353" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="354" spans="2:8" x14ac:dyDescent="0.25">
@@ -5945,10 +5948,10 @@
         <v>50</v>
       </c>
       <c r="G355" t="s">
+        <v>348</v>
+      </c>
+      <c r="H355" t="s">
         <v>349</v>
-      </c>
-      <c r="H355" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="356" spans="2:8" x14ac:dyDescent="0.25">
@@ -5959,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="F356" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G356" t="s">
         <v>62</v>
@@ -5976,7 +5979,7 @@
         <v>64</v>
       </c>
       <c r="F357" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G357" t="s">
         <v>66</v>
@@ -5990,7 +5993,7 @@
         <v>32</v>
       </c>
       <c r="F358" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G358" t="s">
         <v>69</v>
@@ -6040,13 +6043,13 @@
         <v>74</v>
       </c>
       <c r="F365" t="s">
+        <v>353</v>
+      </c>
+      <c r="G365" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="G365" s="5" t="s">
+      <c r="H365" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="H365" s="5" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="366" spans="2:8" x14ac:dyDescent="0.25">
@@ -6054,7 +6057,7 @@
         <v>52</v>
       </c>
       <c r="C366" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="367" spans="2:8" x14ac:dyDescent="0.25">
@@ -6065,7 +6068,7 @@
         <v>60</v>
       </c>
       <c r="F367" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G367" t="s">
         <v>62</v>
@@ -6082,7 +6085,7 @@
         <v>64</v>
       </c>
       <c r="F368" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G368" t="s">
         <v>66</v>
@@ -6096,7 +6099,7 @@
         <v>32</v>
       </c>
       <c r="F369" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G369" t="s">
         <v>69</v>
@@ -6115,10 +6118,10 @@
         <v>42</v>
       </c>
       <c r="F371" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I371" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
@@ -6126,10 +6129,10 @@
         <v>42</v>
       </c>
       <c r="F372" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I372" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
@@ -6137,10 +6140,10 @@
         <v>42</v>
       </c>
       <c r="F373" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I373" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
@@ -6153,10 +6156,10 @@
         <v>79</v>
       </c>
       <c r="E375" t="s">
+        <v>360</v>
+      </c>
+      <c r="F375" t="s">
         <v>361</v>
-      </c>
-      <c r="F375" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
@@ -6164,10 +6167,10 @@
         <v>81</v>
       </c>
       <c r="E376" t="s">
+        <v>362</v>
+      </c>
+      <c r="F376" t="s">
         <v>363</v>
-      </c>
-      <c r="F376" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
@@ -6175,10 +6178,10 @@
         <v>79</v>
       </c>
       <c r="E377" t="s">
+        <v>364</v>
+      </c>
+      <c r="F377" t="s">
         <v>365</v>
-      </c>
-      <c r="F377" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -6194,13 +6197,13 @@
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B380" t="s">
         <v>52</v>
       </c>
       <c r="C380" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
@@ -6216,7 +6219,7 @@
         <v>53</v>
       </c>
       <c r="F382" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G382" t="s">
         <v>55</v>
@@ -6235,7 +6238,7 @@
         <v>52</v>
       </c>
       <c r="C384" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="385" spans="2:8" x14ac:dyDescent="0.25">
@@ -6248,10 +6251,10 @@
         <v>50</v>
       </c>
       <c r="G386" t="s">
+        <v>370</v>
+      </c>
+      <c r="H386" t="s">
         <v>371</v>
-      </c>
-      <c r="H386" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="387" spans="2:8" x14ac:dyDescent="0.25">
@@ -6262,7 +6265,7 @@
         <v>60</v>
       </c>
       <c r="F387" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G387" t="s">
         <v>62</v>
@@ -6279,7 +6282,7 @@
         <v>64</v>
       </c>
       <c r="F388" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G388" t="s">
         <v>66</v>
@@ -6293,7 +6296,7 @@
         <v>32</v>
       </c>
       <c r="F389" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G389" t="s">
         <v>69</v>
@@ -6340,13 +6343,13 @@
         <v>74</v>
       </c>
       <c r="F396" t="s">
+        <v>375</v>
+      </c>
+      <c r="G396" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="G396" s="5" t="s">
+      <c r="H396" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="H396" s="5" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="397" spans="2:8" x14ac:dyDescent="0.25">
@@ -6354,7 +6357,7 @@
         <v>52</v>
       </c>
       <c r="C397" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="398" spans="2:8" x14ac:dyDescent="0.25">
@@ -6365,7 +6368,7 @@
         <v>60</v>
       </c>
       <c r="F398" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G398" t="s">
         <v>62</v>
@@ -6382,7 +6385,7 @@
         <v>64</v>
       </c>
       <c r="F399" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G399" t="s">
         <v>66</v>
@@ -6396,7 +6399,7 @@
         <v>32</v>
       </c>
       <c r="F400" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G400" t="s">
         <v>69</v>
@@ -6415,10 +6418,10 @@
         <v>42</v>
       </c>
       <c r="F402" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I402" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
@@ -6426,10 +6429,10 @@
         <v>42</v>
       </c>
       <c r="F403" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I403" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
@@ -6437,10 +6440,10 @@
         <v>42</v>
       </c>
       <c r="F404" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I404" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
@@ -6453,10 +6456,10 @@
         <v>79</v>
       </c>
       <c r="E406" t="s">
+        <v>382</v>
+      </c>
+      <c r="F406" t="s">
         <v>383</v>
-      </c>
-      <c r="F406" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
@@ -6464,10 +6467,10 @@
         <v>81</v>
       </c>
       <c r="E407" t="s">
+        <v>384</v>
+      </c>
+      <c r="F407" t="s">
         <v>385</v>
-      </c>
-      <c r="F407" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
@@ -6475,10 +6478,10 @@
         <v>79</v>
       </c>
       <c r="E408" t="s">
+        <v>386</v>
+      </c>
+      <c r="F408" t="s">
         <v>387</v>
-      </c>
-      <c r="F408" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
@@ -6494,13 +6497,13 @@
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B411" t="s">
         <v>52</v>
       </c>
       <c r="C411" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
@@ -6516,7 +6519,7 @@
         <v>53</v>
       </c>
       <c r="F413" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G413" t="s">
         <v>96</v>
@@ -6535,7 +6538,7 @@
         <v>52</v>
       </c>
       <c r="C415" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
@@ -6548,10 +6551,10 @@
         <v>50</v>
       </c>
       <c r="G417" t="s">
+        <v>392</v>
+      </c>
+      <c r="H417" t="s">
         <v>393</v>
-      </c>
-      <c r="H417" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="418" spans="2:8" x14ac:dyDescent="0.25">
@@ -6562,7 +6565,7 @@
         <v>60</v>
       </c>
       <c r="F418" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G418" t="s">
         <v>62</v>
@@ -6579,7 +6582,7 @@
         <v>64</v>
       </c>
       <c r="F419" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G419" t="s">
         <v>66</v>
@@ -6593,7 +6596,7 @@
         <v>32</v>
       </c>
       <c r="F420" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G420" t="s">
         <v>69</v>
@@ -6643,13 +6646,13 @@
         <v>74</v>
       </c>
       <c r="F427" t="s">
+        <v>397</v>
+      </c>
+      <c r="G427" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="G427" s="5" t="s">
+      <c r="H427" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="H427" s="5" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="428" spans="2:8" x14ac:dyDescent="0.25">
@@ -6657,7 +6660,7 @@
         <v>52</v>
       </c>
       <c r="C428" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="429" spans="2:8" x14ac:dyDescent="0.25">
@@ -6668,7 +6671,7 @@
         <v>60</v>
       </c>
       <c r="F429" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G429" t="s">
         <v>62</v>
@@ -6685,7 +6688,7 @@
         <v>64</v>
       </c>
       <c r="F430" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G430" t="s">
         <v>66</v>
@@ -6699,7 +6702,7 @@
         <v>32</v>
       </c>
       <c r="F431" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G431" t="s">
         <v>69</v>
@@ -6718,10 +6721,10 @@
         <v>42</v>
       </c>
       <c r="F433" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I433" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
@@ -6729,10 +6732,10 @@
         <v>42</v>
       </c>
       <c r="F434" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I434" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
@@ -6740,10 +6743,10 @@
         <v>42</v>
       </c>
       <c r="F435" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I435" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
@@ -6756,10 +6759,10 @@
         <v>79</v>
       </c>
       <c r="E437" t="s">
+        <v>404</v>
+      </c>
+      <c r="F437" t="s">
         <v>405</v>
-      </c>
-      <c r="F437" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
@@ -6767,10 +6770,10 @@
         <v>81</v>
       </c>
       <c r="E438" t="s">
+        <v>406</v>
+      </c>
+      <c r="F438" t="s">
         <v>407</v>
-      </c>
-      <c r="F438" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
@@ -6778,10 +6781,10 @@
         <v>79</v>
       </c>
       <c r="E439" t="s">
+        <v>408</v>
+      </c>
+      <c r="F439" t="s">
         <v>409</v>
-      </c>
-      <c r="F439" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
@@ -6797,13 +6800,13 @@
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B442" t="s">
         <v>52</v>
       </c>
       <c r="C442" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.25">
@@ -6819,7 +6822,7 @@
         <v>53</v>
       </c>
       <c r="F444" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G444" t="s">
         <v>55</v>
@@ -6838,7 +6841,7 @@
         <v>52</v>
       </c>
       <c r="C446" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.25">
@@ -6851,10 +6854,10 @@
         <v>50</v>
       </c>
       <c r="G448" t="s">
+        <v>414</v>
+      </c>
+      <c r="H448" t="s">
         <v>415</v>
-      </c>
-      <c r="H448" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="449" spans="2:9" x14ac:dyDescent="0.25">
@@ -6865,7 +6868,7 @@
         <v>60</v>
       </c>
       <c r="F449" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G449" t="s">
         <v>62</v>
@@ -6882,7 +6885,7 @@
         <v>64</v>
       </c>
       <c r="F450" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G450" t="s">
         <v>66</v>
@@ -6896,7 +6899,7 @@
         <v>32</v>
       </c>
       <c r="F451" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G451" t="s">
         <v>69</v>
@@ -6943,13 +6946,13 @@
         <v>74</v>
       </c>
       <c r="F458" t="s">
+        <v>419</v>
+      </c>
+      <c r="G458" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G458" s="5" t="s">
+      <c r="H458" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="H458" s="5" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="459" spans="2:9" x14ac:dyDescent="0.25">
@@ -6957,7 +6960,7 @@
         <v>52</v>
       </c>
       <c r="C459" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="460" spans="2:9" x14ac:dyDescent="0.25">
@@ -6968,7 +6971,7 @@
         <v>60</v>
       </c>
       <c r="F460" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G460" t="s">
         <v>62</v>
@@ -6985,7 +6988,7 @@
         <v>64</v>
       </c>
       <c r="F461" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G461" t="s">
         <v>66</v>
@@ -6999,7 +7002,7 @@
         <v>32</v>
       </c>
       <c r="F462" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G462" t="s">
         <v>69</v>
@@ -7018,10 +7021,10 @@
         <v>42</v>
       </c>
       <c r="F464" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I464" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
@@ -7029,10 +7032,10 @@
         <v>42</v>
       </c>
       <c r="F465" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I465" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.25">
@@ -7040,10 +7043,10 @@
         <v>42</v>
       </c>
       <c r="F466" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I466" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.25">
@@ -7056,10 +7059,10 @@
         <v>79</v>
       </c>
       <c r="E468" t="s">
+        <v>426</v>
+      </c>
+      <c r="F468" t="s">
         <v>427</v>
-      </c>
-      <c r="F468" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
@@ -7067,10 +7070,10 @@
         <v>81</v>
       </c>
       <c r="E469" t="s">
+        <v>428</v>
+      </c>
+      <c r="F469" t="s">
         <v>429</v>
-      </c>
-      <c r="F469" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
@@ -7078,10 +7081,10 @@
         <v>79</v>
       </c>
       <c r="E470" t="s">
+        <v>430</v>
+      </c>
+      <c r="F470" t="s">
         <v>431</v>
-      </c>
-      <c r="F470" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.25">
@@ -7097,13 +7100,13 @@
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B473" t="s">
         <v>52</v>
       </c>
       <c r="C473" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.25">
@@ -7119,7 +7122,7 @@
         <v>53</v>
       </c>
       <c r="F475" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G475" t="s">
         <v>96</v>
@@ -7138,7 +7141,7 @@
         <v>52</v>
       </c>
       <c r="C477" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
@@ -7151,10 +7154,10 @@
         <v>50</v>
       </c>
       <c r="G479" t="s">
+        <v>436</v>
+      </c>
+      <c r="H479" t="s">
         <v>437</v>
-      </c>
-      <c r="H479" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.25">
@@ -7165,7 +7168,7 @@
         <v>60</v>
       </c>
       <c r="F480" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G480" t="s">
         <v>62</v>
@@ -7182,7 +7185,7 @@
         <v>64</v>
       </c>
       <c r="F481" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G481" t="s">
         <v>66</v>
@@ -7196,7 +7199,7 @@
         <v>32</v>
       </c>
       <c r="F482" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G482" t="s">
         <v>69</v>
@@ -7246,13 +7249,13 @@
         <v>74</v>
       </c>
       <c r="F489" t="s">
+        <v>441</v>
+      </c>
+      <c r="G489" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="G489" s="5" t="s">
+      <c r="H489" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="H489" s="5" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="490" spans="2:9" x14ac:dyDescent="0.25">
@@ -7260,7 +7263,7 @@
         <v>52</v>
       </c>
       <c r="C490" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="491" spans="2:9" x14ac:dyDescent="0.25">
@@ -7271,7 +7274,7 @@
         <v>60</v>
       </c>
       <c r="F491" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G491" t="s">
         <v>62</v>
@@ -7288,7 +7291,7 @@
         <v>64</v>
       </c>
       <c r="F492" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G492" t="s">
         <v>66</v>
@@ -7302,7 +7305,7 @@
         <v>32</v>
       </c>
       <c r="F493" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G493" t="s">
         <v>69</v>
@@ -7321,10 +7324,10 @@
         <v>42</v>
       </c>
       <c r="F495" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I495" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="496" spans="2:9" x14ac:dyDescent="0.25">
@@ -7332,10 +7335,10 @@
         <v>42</v>
       </c>
       <c r="F496" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I496" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.25">
@@ -7343,10 +7346,10 @@
         <v>42</v>
       </c>
       <c r="F497" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I497" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
@@ -7359,10 +7362,10 @@
         <v>79</v>
       </c>
       <c r="E499" t="s">
+        <v>448</v>
+      </c>
+      <c r="F499" t="s">
         <v>449</v>
-      </c>
-      <c r="F499" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.25">
@@ -7370,10 +7373,10 @@
         <v>81</v>
       </c>
       <c r="E500" t="s">
+        <v>450</v>
+      </c>
+      <c r="F500" t="s">
         <v>451</v>
-      </c>
-      <c r="F500" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.25">
@@ -7381,10 +7384,10 @@
         <v>79</v>
       </c>
       <c r="E501" t="s">
+        <v>452</v>
+      </c>
+      <c r="F501" t="s">
         <v>453</v>
-      </c>
-      <c r="F501" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
@@ -7400,13 +7403,13 @@
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B504" t="s">
         <v>52</v>
       </c>
       <c r="C504" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.25">
@@ -7422,7 +7425,7 @@
         <v>53</v>
       </c>
       <c r="F506" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G506" t="s">
         <v>55</v>
@@ -7441,7 +7444,7 @@
         <v>52</v>
       </c>
       <c r="C508" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.25">
@@ -7454,10 +7457,10 @@
         <v>50</v>
       </c>
       <c r="G510" t="s">
+        <v>458</v>
+      </c>
+      <c r="H510" t="s">
         <v>459</v>
-      </c>
-      <c r="H510" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
@@ -7468,7 +7471,7 @@
         <v>60</v>
       </c>
       <c r="F511" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G511" t="s">
         <v>62</v>
@@ -7485,7 +7488,7 @@
         <v>64</v>
       </c>
       <c r="F512" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G512" t="s">
         <v>66</v>
@@ -7499,7 +7502,7 @@
         <v>32</v>
       </c>
       <c r="F513" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G513" t="s">
         <v>69</v>
@@ -7546,13 +7549,13 @@
         <v>74</v>
       </c>
       <c r="F520" t="s">
+        <v>463</v>
+      </c>
+      <c r="G520" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="G520" s="5" t="s">
+      <c r="H520" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="H520" s="5" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="521" spans="2:9" x14ac:dyDescent="0.25">
@@ -7560,7 +7563,7 @@
         <v>52</v>
       </c>
       <c r="C521" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="522" spans="2:9" x14ac:dyDescent="0.25">
@@ -7571,7 +7574,7 @@
         <v>60</v>
       </c>
       <c r="F522" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G522" t="s">
         <v>62</v>
@@ -7588,7 +7591,7 @@
         <v>64</v>
       </c>
       <c r="F523" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G523" t="s">
         <v>66</v>
@@ -7602,7 +7605,7 @@
         <v>32</v>
       </c>
       <c r="F524" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G524" t="s">
         <v>69</v>
@@ -7621,10 +7624,10 @@
         <v>42</v>
       </c>
       <c r="F526" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I526" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="527" spans="2:9" x14ac:dyDescent="0.25">
@@ -7632,10 +7635,10 @@
         <v>42</v>
       </c>
       <c r="F527" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I527" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="528" spans="2:9" x14ac:dyDescent="0.25">
@@ -7643,10 +7646,10 @@
         <v>42</v>
       </c>
       <c r="F528" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I528" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
@@ -7659,10 +7662,10 @@
         <v>79</v>
       </c>
       <c r="E530" t="s">
+        <v>470</v>
+      </c>
+      <c r="F530" t="s">
         <v>471</v>
-      </c>
-      <c r="F530" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
@@ -7670,10 +7673,10 @@
         <v>81</v>
       </c>
       <c r="E531" t="s">
+        <v>472</v>
+      </c>
+      <c r="F531" t="s">
         <v>473</v>
-      </c>
-      <c r="F531" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
@@ -7681,10 +7684,10 @@
         <v>79</v>
       </c>
       <c r="E532" t="s">
+        <v>474</v>
+      </c>
+      <c r="F532" t="s">
         <v>475</v>
-      </c>
-      <c r="F532" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
@@ -7700,13 +7703,13 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B535" t="s">
         <v>52</v>
       </c>
       <c r="C535" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
@@ -7722,7 +7725,7 @@
         <v>53</v>
       </c>
       <c r="F537" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G537" t="s">
         <v>96</v>
@@ -7741,7 +7744,7 @@
         <v>52</v>
       </c>
       <c r="C539" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
@@ -7754,10 +7757,10 @@
         <v>50</v>
       </c>
       <c r="G541" t="s">
+        <v>480</v>
+      </c>
+      <c r="H541" t="s">
         <v>481</v>
-      </c>
-      <c r="H541" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
@@ -7768,7 +7771,7 @@
         <v>60</v>
       </c>
       <c r="F542" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G542" t="s">
         <v>62</v>
@@ -7785,7 +7788,7 @@
         <v>64</v>
       </c>
       <c r="F543" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G543" t="s">
         <v>66</v>
@@ -7799,7 +7802,7 @@
         <v>32</v>
       </c>
       <c r="F544" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G544" t="s">
         <v>69</v>
@@ -7849,13 +7852,13 @@
         <v>74</v>
       </c>
       <c r="F551" t="s">
+        <v>485</v>
+      </c>
+      <c r="G551" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="G551" s="5" t="s">
+      <c r="H551" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="H551" s="5" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="552" spans="2:9" x14ac:dyDescent="0.25">
@@ -7863,7 +7866,7 @@
         <v>52</v>
       </c>
       <c r="C552" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="553" spans="2:9" x14ac:dyDescent="0.25">
@@ -7874,7 +7877,7 @@
         <v>60</v>
       </c>
       <c r="F553" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G553" t="s">
         <v>62</v>
@@ -7891,7 +7894,7 @@
         <v>64</v>
       </c>
       <c r="F554" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G554" t="s">
         <v>66</v>
@@ -7905,7 +7908,7 @@
         <v>32</v>
       </c>
       <c r="F555" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G555" t="s">
         <v>69</v>
@@ -7924,10 +7927,10 @@
         <v>42</v>
       </c>
       <c r="F557" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I557" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="558" spans="2:9" x14ac:dyDescent="0.25">
@@ -7935,10 +7938,10 @@
         <v>42</v>
       </c>
       <c r="F558" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I558" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="559" spans="2:9" x14ac:dyDescent="0.25">
@@ -7946,10 +7949,10 @@
         <v>42</v>
       </c>
       <c r="F559" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I559" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="560" spans="2:9" x14ac:dyDescent="0.25">
@@ -7962,10 +7965,10 @@
         <v>79</v>
       </c>
       <c r="E561" t="s">
+        <v>492</v>
+      </c>
+      <c r="F561" t="s">
         <v>493</v>
-      </c>
-      <c r="F561" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
@@ -7973,10 +7976,10 @@
         <v>81</v>
       </c>
       <c r="E562" t="s">
+        <v>494</v>
+      </c>
+      <c r="F562" t="s">
         <v>495</v>
-      </c>
-      <c r="F562" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
@@ -7984,10 +7987,10 @@
         <v>79</v>
       </c>
       <c r="E563" t="s">
+        <v>496</v>
+      </c>
+      <c r="F563" t="s">
         <v>497</v>
-      </c>
-      <c r="F563" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
@@ -8003,13 +8006,13 @@
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B566" t="s">
         <v>52</v>
       </c>
       <c r="C566" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
@@ -8025,7 +8028,7 @@
         <v>53</v>
       </c>
       <c r="F568" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G568" t="s">
         <v>55</v>
@@ -8044,7 +8047,7 @@
         <v>52</v>
       </c>
       <c r="C570" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
@@ -8057,10 +8060,10 @@
         <v>50</v>
       </c>
       <c r="G572" t="s">
+        <v>502</v>
+      </c>
+      <c r="H572" t="s">
         <v>503</v>
-      </c>
-      <c r="H572" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
@@ -8071,7 +8074,7 @@
         <v>60</v>
       </c>
       <c r="F573" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G573" t="s">
         <v>62</v>
@@ -8088,7 +8091,7 @@
         <v>64</v>
       </c>
       <c r="F574" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G574" t="s">
         <v>66</v>
@@ -8102,7 +8105,7 @@
         <v>32</v>
       </c>
       <c r="F575" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G575" t="s">
         <v>69</v>
@@ -8149,13 +8152,13 @@
         <v>74</v>
       </c>
       <c r="F582" t="s">
+        <v>507</v>
+      </c>
+      <c r="G582" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="G582" s="5" t="s">
+      <c r="H582" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="H582" s="5" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="583" spans="2:9" x14ac:dyDescent="0.25">
@@ -8163,7 +8166,7 @@
         <v>52</v>
       </c>
       <c r="C583" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="584" spans="2:9" x14ac:dyDescent="0.25">
@@ -8174,7 +8177,7 @@
         <v>60</v>
       </c>
       <c r="F584" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G584" t="s">
         <v>62</v>
@@ -8191,7 +8194,7 @@
         <v>64</v>
       </c>
       <c r="F585" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G585" t="s">
         <v>66</v>
@@ -8205,7 +8208,7 @@
         <v>32</v>
       </c>
       <c r="F586" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G586" t="s">
         <v>69</v>
@@ -8224,10 +8227,10 @@
         <v>42</v>
       </c>
       <c r="F588" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I588" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="589" spans="2:9" x14ac:dyDescent="0.25">
@@ -8235,10 +8238,10 @@
         <v>42</v>
       </c>
       <c r="F589" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I589" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="590" spans="2:9" x14ac:dyDescent="0.25">
@@ -8246,10 +8249,10 @@
         <v>42</v>
       </c>
       <c r="F590" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I590" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="591" spans="2:9" x14ac:dyDescent="0.25">
@@ -8262,10 +8265,10 @@
         <v>79</v>
       </c>
       <c r="E592" t="s">
+        <v>514</v>
+      </c>
+      <c r="F592" t="s">
         <v>515</v>
-      </c>
-      <c r="F592" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.25">
@@ -8273,10 +8276,10 @@
         <v>81</v>
       </c>
       <c r="E593" t="s">
+        <v>516</v>
+      </c>
+      <c r="F593" t="s">
         <v>517</v>
-      </c>
-      <c r="F593" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.25">
@@ -8284,10 +8287,10 @@
         <v>79</v>
       </c>
       <c r="E594" t="s">
+        <v>518</v>
+      </c>
+      <c r="F594" t="s">
         <v>519</v>
-      </c>
-      <c r="F594" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.25">
@@ -8303,13 +8306,13 @@
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B597" t="s">
         <v>52</v>
       </c>
       <c r="C597" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.25">
@@ -8325,7 +8328,7 @@
         <v>53</v>
       </c>
       <c r="F599" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G599" t="s">
         <v>96</v>
@@ -8344,7 +8347,7 @@
         <v>52</v>
       </c>
       <c r="C601" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.25">
@@ -8357,10 +8360,10 @@
         <v>50</v>
       </c>
       <c r="G603" t="s">
+        <v>524</v>
+      </c>
+      <c r="H603" t="s">
         <v>525</v>
-      </c>
-      <c r="H603" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.25">
@@ -8371,7 +8374,7 @@
         <v>60</v>
       </c>
       <c r="F604" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G604" t="s">
         <v>62</v>
@@ -8388,7 +8391,7 @@
         <v>64</v>
       </c>
       <c r="F605" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G605" t="s">
         <v>66</v>
@@ -8402,7 +8405,7 @@
         <v>32</v>
       </c>
       <c r="F606" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G606" t="s">
         <v>69</v>
@@ -8452,13 +8455,13 @@
         <v>74</v>
       </c>
       <c r="F613" t="s">
+        <v>529</v>
+      </c>
+      <c r="G613" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="G613" s="5" t="s">
+      <c r="H613" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="H613" s="5" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.25">
@@ -8466,7 +8469,7 @@
         <v>52</v>
       </c>
       <c r="C614" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.25">
@@ -8477,7 +8480,7 @@
         <v>60</v>
       </c>
       <c r="F615" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G615" t="s">
         <v>62</v>
@@ -8494,7 +8497,7 @@
         <v>64</v>
       </c>
       <c r="F616" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G616" t="s">
         <v>66</v>
@@ -8508,7 +8511,7 @@
         <v>32</v>
       </c>
       <c r="F617" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G617" t="s">
         <v>69</v>
@@ -8527,10 +8530,10 @@
         <v>42</v>
       </c>
       <c r="F619" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I619" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
@@ -8538,10 +8541,10 @@
         <v>42</v>
       </c>
       <c r="F620" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I620" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
@@ -8549,10 +8552,10 @@
         <v>42</v>
       </c>
       <c r="F621" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I621" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
@@ -8582,7 +8585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
@@ -8635,10 +8638,10 @@
         <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E2" t="s">
         <v>85</v>
@@ -8664,10 +8667,10 @@
         <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E3" t="s">
         <v>85</v>
@@ -8693,10 +8696,10 @@
         <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E4" t="s">
         <v>85</v>
@@ -8722,10 +8725,10 @@
         <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E5" t="s">
         <v>85</v>
@@ -8751,10 +8754,10 @@
         <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E6" t="s">
         <v>85</v>
@@ -8780,10 +8783,10 @@
         <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E7" t="s">
         <v>85</v>
@@ -8803,16 +8806,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E8" t="s">
         <v>85</v>
@@ -8827,21 +8830,21 @@
         <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E9" t="s">
         <v>85</v>
@@ -8856,21 +8859,21 @@
         <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E10" t="s">
         <v>85</v>
@@ -8885,21 +8888,21 @@
         <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E11" t="s">
         <v>85</v>
@@ -8914,21 +8917,21 @@
         <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E12" t="s">
         <v>85</v>
@@ -8943,21 +8946,21 @@
         <v>87</v>
       </c>
       <c r="I12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E13" t="s">
         <v>85</v>
@@ -8972,21 +8975,21 @@
         <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E14" t="s">
         <v>85</v>
@@ -9001,21 +9004,21 @@
         <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E15" t="s">
         <v>85</v>
@@ -9030,21 +9033,21 @@
         <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E16" t="s">
         <v>85</v>
@@ -9059,21 +9062,21 @@
         <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E17" t="s">
         <v>85</v>
@@ -9088,21 +9091,21 @@
         <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E18" t="s">
         <v>85</v>
@@ -9117,21 +9120,21 @@
         <v>87</v>
       </c>
       <c r="I18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D19" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E19" t="s">
         <v>85</v>
@@ -9146,21 +9149,21 @@
         <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E20" t="s">
         <v>85</v>
@@ -9175,21 +9178,21 @@
         <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E21" t="s">
         <v>85</v>
@@ -9204,21 +9207,21 @@
         <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E22" t="s">
         <v>85</v>
@@ -9233,21 +9236,21 @@
         <v>87</v>
       </c>
       <c r="I22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E23" t="s">
         <v>85</v>
@@ -9262,21 +9265,21 @@
         <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E24" t="s">
         <v>85</v>
@@ -9291,21 +9294,21 @@
         <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s">
         <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E25" t="s">
         <v>85</v>
@@ -9320,21 +9323,21 @@
         <v>87</v>
       </c>
       <c r="I25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s">
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E26" t="s">
         <v>85</v>
@@ -9349,21 +9352,21 @@
         <v>87</v>
       </c>
       <c r="I26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s">
         <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E27" t="s">
         <v>85</v>
@@ -9378,21 +9381,21 @@
         <v>87</v>
       </c>
       <c r="I27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s">
         <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E28" t="s">
         <v>85</v>
@@ -9407,21 +9410,21 @@
         <v>87</v>
       </c>
       <c r="I28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s">
         <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D29" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E29" t="s">
         <v>85</v>
@@ -9436,21 +9439,21 @@
         <v>87</v>
       </c>
       <c r="I29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s">
         <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E30" t="s">
         <v>85</v>
@@ -9465,21 +9468,21 @@
         <v>87</v>
       </c>
       <c r="I30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s">
         <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D31" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E31" t="s">
         <v>85</v>
@@ -9494,21 +9497,21 @@
         <v>87</v>
       </c>
       <c r="I31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B32" t="s">
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D32" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E32" t="s">
         <v>85</v>
@@ -9523,21 +9526,21 @@
         <v>87</v>
       </c>
       <c r="I32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s">
         <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E33" t="s">
         <v>85</v>
@@ -9552,21 +9555,21 @@
         <v>87</v>
       </c>
       <c r="I33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E34" t="s">
         <v>85</v>
@@ -9581,21 +9584,21 @@
         <v>87</v>
       </c>
       <c r="I34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E35" t="s">
         <v>85</v>
@@ -9610,21 +9613,21 @@
         <v>87</v>
       </c>
       <c r="I35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B36" t="s">
         <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E36" t="s">
         <v>85</v>
@@ -9639,21 +9642,21 @@
         <v>87</v>
       </c>
       <c r="I36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B37" t="s">
         <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E37" t="s">
         <v>85</v>
@@ -9668,21 +9671,21 @@
         <v>87</v>
       </c>
       <c r="I37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B38" t="s">
         <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D38" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E38" t="s">
         <v>85</v>
@@ -9697,21 +9700,21 @@
         <v>87</v>
       </c>
       <c r="I38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s">
         <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D39" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E39" t="s">
         <v>85</v>
@@ -9726,21 +9729,21 @@
         <v>87</v>
       </c>
       <c r="I39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B40" t="s">
         <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D40" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E40" t="s">
         <v>85</v>
@@ -9755,21 +9758,21 @@
         <v>87</v>
       </c>
       <c r="I40" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B41" t="s">
         <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D41" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E41" t="s">
         <v>85</v>
@@ -9784,21 +9787,21 @@
         <v>87</v>
       </c>
       <c r="I41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B42" t="s">
         <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D42" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E42" t="s">
         <v>85</v>
@@ -9813,21 +9816,21 @@
         <v>87</v>
       </c>
       <c r="I42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D43" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E43" t="s">
         <v>85</v>
@@ -9842,21 +9845,21 @@
         <v>87</v>
       </c>
       <c r="I43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B44" t="s">
         <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D44" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E44" t="s">
         <v>85</v>
@@ -9871,21 +9874,21 @@
         <v>87</v>
       </c>
       <c r="I44" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B45" t="s">
         <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D45" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E45" t="s">
         <v>85</v>
@@ -9900,21 +9903,21 @@
         <v>87</v>
       </c>
       <c r="I45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B46" t="s">
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D46" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E46" t="s">
         <v>85</v>
@@ -9929,21 +9932,21 @@
         <v>87</v>
       </c>
       <c r="I46" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B47" t="s">
         <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D47" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E47" t="s">
         <v>85</v>
@@ -9958,21 +9961,21 @@
         <v>87</v>
       </c>
       <c r="I47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B48" t="s">
         <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D48" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E48" t="s">
         <v>85</v>
@@ -9987,21 +9990,21 @@
         <v>87</v>
       </c>
       <c r="I48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B49" t="s">
         <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D49" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E49" t="s">
         <v>85</v>
@@ -10016,21 +10019,21 @@
         <v>87</v>
       </c>
       <c r="I49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B50" t="s">
         <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D50" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E50" t="s">
         <v>85</v>
@@ -10045,21 +10048,21 @@
         <v>87</v>
       </c>
       <c r="I50" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B51" t="s">
         <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D51" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E51" t="s">
         <v>85</v>
@@ -10074,21 +10077,21 @@
         <v>87</v>
       </c>
       <c r="I51" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B52" t="s">
         <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D52" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E52" t="s">
         <v>85</v>
@@ -10103,21 +10106,21 @@
         <v>87</v>
       </c>
       <c r="I52" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B53" t="s">
         <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D53" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E53" t="s">
         <v>85</v>
@@ -10132,21 +10135,21 @@
         <v>87</v>
       </c>
       <c r="I53" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B54" t="s">
         <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D54" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E54" t="s">
         <v>85</v>
@@ -10161,21 +10164,21 @@
         <v>87</v>
       </c>
       <c r="I54" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B55" t="s">
         <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D55" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E55" t="s">
         <v>85</v>
@@ -10190,21 +10193,21 @@
         <v>87</v>
       </c>
       <c r="I55" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B56" t="s">
         <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D56" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E56" t="s">
         <v>85</v>
@@ -10219,21 +10222,21 @@
         <v>87</v>
       </c>
       <c r="I56" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B57" t="s">
         <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D57" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E57" t="s">
         <v>85</v>
@@ -10248,21 +10251,21 @@
         <v>87</v>
       </c>
       <c r="I57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B58" t="s">
         <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D58" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E58" t="s">
         <v>85</v>
@@ -10277,21 +10280,21 @@
         <v>87</v>
       </c>
       <c r="I58" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B59" t="s">
         <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E59" t="s">
         <v>85</v>
@@ -10306,21 +10309,21 @@
         <v>87</v>
       </c>
       <c r="I59" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B60" t="s">
         <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E60" t="s">
         <v>85</v>
@@ -10335,21 +10338,21 @@
         <v>87</v>
       </c>
       <c r="I60" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B61" t="s">
         <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D61" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E61" t="s">
         <v>85</v>
@@ -10364,7 +10367,7 @@
         <v>87</v>
       </c>
       <c r="I61" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -10424,13 +10427,13 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -10478,10 +10481,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
         <v>105</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10493,10 +10496,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
         <v>107</v>
-      </c>
-      <c r="D3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -10508,10 +10511,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
         <v>109</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -10523,10 +10526,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
         <v>111</v>
-      </c>
-      <c r="D5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -10538,10 +10541,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
         <v>113</v>
-      </c>
-      <c r="D6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -10553,10 +10556,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
         <v>115</v>
-      </c>
-      <c r="D7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -10568,10 +10571,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
         <v>117</v>
-      </c>
-      <c r="D8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -10583,10 +10586,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
         <v>119</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -10597,10 +10600,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C233"/>
+  <dimension ref="A1:C234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -10647,7 +10650,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -10658,7 +10661,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -10669,7 +10672,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -10680,7 +10683,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -10691,7 +10694,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -10702,7 +10705,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -10713,7 +10716,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -10735,7 +10738,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -10746,7 +10749,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -10757,7 +10760,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -10768,7 +10771,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -10779,7 +10782,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -10790,7 +10793,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -10801,7 +10804,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -10812,7 +10815,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -10823,7 +10826,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -10834,7 +10837,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -10867,7 +10870,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -10878,7 +10881,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -10889,7 +10892,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -10900,7 +10903,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -10911,7 +10914,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -10922,7 +10925,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -10933,7 +10936,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -10944,7 +10947,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -10955,7 +10958,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -10966,7 +10969,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -10977,7 +10980,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -10988,7 +10991,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -10999,7 +11002,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -11010,7 +11013,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -11021,7 +11024,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -11032,7 +11035,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -11043,7 +11046,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -11054,7 +11057,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -11087,7 +11090,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
@@ -11098,7 +11101,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B45" t="s">
         <v>32</v>
@@ -11109,7 +11112,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
@@ -11120,7 +11123,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s">
         <v>32</v>
@@ -11131,7 +11134,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
@@ -11142,7 +11145,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B49" t="s">
         <v>32</v>
@@ -11153,7 +11156,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B50" t="s">
         <v>32</v>
@@ -11164,7 +11167,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
@@ -11175,7 +11178,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
@@ -11186,7 +11189,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
@@ -11197,7 +11200,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B54" t="s">
         <v>32</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
@@ -11219,7 +11222,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
@@ -11230,7 +11233,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B57" t="s">
         <v>32</v>
@@ -11241,7 +11244,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B58" t="s">
         <v>32</v>
@@ -11252,7 +11255,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B59" t="s">
         <v>32</v>
@@ -11263,7 +11266,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B60" t="s">
         <v>32</v>
@@ -11274,7 +11277,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B61" t="s">
         <v>32</v>
@@ -11307,7 +11310,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
@@ -11318,7 +11321,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -11329,7 +11332,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -11340,7 +11343,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -11351,7 +11354,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -11362,7 +11365,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -11373,7 +11376,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -11384,7 +11387,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -11395,7 +11398,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
@@ -11406,7 +11409,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -11417,7 +11420,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
@@ -11428,7 +11431,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
@@ -11439,7 +11442,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -11450,7 +11453,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
@@ -11461,7 +11464,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -11472,7 +11475,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -11483,7 +11486,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
@@ -11494,7 +11497,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
@@ -11505,7 +11508,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>79</v>
@@ -11516,7 +11519,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>79</v>
@@ -11527,7 +11530,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>79</v>
@@ -11538,7 +11541,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>79</v>
@@ -11549,7 +11552,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>79</v>
@@ -11560,7 +11563,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>79</v>
@@ -11571,7 +11574,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>79</v>
@@ -11582,7 +11585,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>79</v>
@@ -11593,7 +11596,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>79</v>
@@ -11604,7 +11607,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>79</v>
@@ -11615,7 +11618,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>79</v>
@@ -11626,7 +11629,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>79</v>
@@ -11637,7 +11640,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>79</v>
@@ -11648,7 +11651,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>79</v>
@@ -11659,7 +11662,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>79</v>
@@ -11670,7 +11673,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>79</v>
@@ -11681,7 +11684,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>79</v>
@@ -11692,7 +11695,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>79</v>
@@ -11703,7 +11706,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>79</v>
@@ -11714,7 +11717,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>79</v>
@@ -11725,7 +11728,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>81</v>
@@ -11736,7 +11739,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>81</v>
@@ -11747,7 +11750,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>81</v>
@@ -11758,7 +11761,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>81</v>
@@ -11769,7 +11772,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>81</v>
@@ -11780,7 +11783,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>81</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>81</v>
@@ -11802,7 +11805,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>81</v>
@@ -11813,7 +11816,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>81</v>
@@ -11824,7 +11827,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>81</v>
@@ -11835,7 +11838,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>81</v>
@@ -11846,7 +11849,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>81</v>
@@ -11857,7 +11860,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>81</v>
@@ -11868,7 +11871,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>81</v>
@@ -11879,7 +11882,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>81</v>
@@ -11890,7 +11893,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>81</v>
@@ -11901,7 +11904,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>81</v>
@@ -11912,7 +11915,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>81</v>
@@ -11923,7 +11926,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>81</v>
@@ -11934,7 +11937,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>81</v>
@@ -11945,7 +11948,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>79</v>
@@ -11956,7 +11959,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>79</v>
@@ -11967,7 +11970,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>79</v>
@@ -11978,7 +11981,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>79</v>
@@ -11989,7 +11992,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>79</v>
@@ -12000,7 +12003,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>79</v>
@@ -12011,7 +12014,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>79</v>
@@ -12022,7 +12025,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>79</v>
@@ -12033,7 +12036,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>79</v>
@@ -12044,7 +12047,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>79</v>
@@ -12055,7 +12058,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>79</v>
@@ -12066,7 +12069,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>79</v>
@@ -12077,7 +12080,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>79</v>
@@ -12088,7 +12091,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>79</v>
@@ -12099,7 +12102,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>79</v>
@@ -12110,7 +12113,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>79</v>
@@ -12121,7 +12124,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>79</v>
@@ -12132,7 +12135,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>79</v>
@@ -12143,7 +12146,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>79</v>
@@ -12154,7 +12157,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>79</v>
@@ -12187,7 +12190,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B144" s="16" t="s">
         <v>22</v>
@@ -12198,7 +12201,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B145" s="16" t="s">
         <v>22</v>
@@ -12209,7 +12212,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B146" s="16" t="s">
         <v>22</v>
@@ -12220,7 +12223,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B147" s="16" t="s">
         <v>22</v>
@@ -12231,7 +12234,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B148" s="16" t="s">
         <v>22</v>
@@ -12242,7 +12245,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B149" s="16" t="s">
         <v>22</v>
@@ -12253,7 +12256,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B150" s="16" t="s">
         <v>22</v>
@@ -12264,7 +12267,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B151" s="16" t="s">
         <v>22</v>
@@ -12275,7 +12278,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B152" s="16" t="s">
         <v>22</v>
@@ -12286,7 +12289,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B153" s="16" t="s">
         <v>22</v>
@@ -12297,7 +12300,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B154" s="16" t="s">
         <v>22</v>
@@ -12308,7 +12311,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B155" s="16" t="s">
         <v>22</v>
@@ -12319,7 +12322,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B156" s="16" t="s">
         <v>22</v>
@@ -12330,7 +12333,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B157" s="16" t="s">
         <v>22</v>
@@ -12341,7 +12344,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B158" s="16" t="s">
         <v>22</v>
@@ -12352,7 +12355,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B159" s="16" t="s">
         <v>22</v>
@@ -12363,7 +12366,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B160" s="16" t="s">
         <v>22</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B161" s="16" t="s">
         <v>22</v>
@@ -12385,7 +12388,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B163" t="s">
         <v>32</v>
@@ -12396,7 +12399,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>81</v>
@@ -12407,7 +12410,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B165" t="s">
         <v>22</v>
@@ -12418,10 +12421,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>539</v>
+      </c>
+      <c r="B166" s="9" t="s">
         <v>540</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>541</v>
       </c>
       <c r="C166" t="b">
         <v>1</v>
@@ -12429,7 +12432,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B167" t="s">
         <v>32</v>
@@ -12440,7 +12443,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B168" s="9" t="s">
         <v>81</v>
@@ -12451,7 +12454,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
@@ -12462,10 +12465,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C170" t="b">
         <v>1</v>
@@ -12473,7 +12476,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B171" t="s">
         <v>32</v>
@@ -12484,7 +12487,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>81</v>
@@ -12495,7 +12498,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B173" t="s">
         <v>22</v>
@@ -12506,10 +12509,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C174" t="b">
         <v>1</v>
@@ -12517,7 +12520,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B175" t="s">
         <v>32</v>
@@ -12528,7 +12531,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>81</v>
@@ -12539,7 +12542,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B177" t="s">
         <v>22</v>
@@ -12550,10 +12553,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C178" t="b">
         <v>1</v>
@@ -12561,7 +12564,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B179" t="s">
         <v>32</v>
@@ -12572,7 +12575,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>81</v>
@@ -12583,7 +12586,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B181" t="s">
         <v>22</v>
@@ -12594,10 +12597,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C182" t="b">
         <v>1</v>
@@ -12605,7 +12608,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B183" t="s">
         <v>32</v>
@@ -12616,7 +12619,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>81</v>
@@ -12627,7 +12630,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B185" t="s">
         <v>22</v>
@@ -12638,10 +12641,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C186" t="b">
         <v>1</v>
@@ -12649,7 +12652,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B187" t="s">
         <v>32</v>
@@ -12660,7 +12663,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B188" s="9" t="s">
         <v>81</v>
@@ -12671,7 +12674,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B189" t="s">
         <v>22</v>
@@ -12682,10 +12685,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C190" t="b">
         <v>1</v>
@@ -12693,7 +12696,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B191" t="s">
         <v>32</v>
@@ -12704,7 +12707,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>81</v>
@@ -12715,7 +12718,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B193" t="s">
         <v>22</v>
@@ -12726,10 +12729,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C194" t="b">
         <v>1</v>
@@ -12737,7 +12740,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B195" t="s">
         <v>32</v>
@@ -12748,7 +12751,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B196" s="9" t="s">
         <v>81</v>
@@ -12759,7 +12762,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B197" t="s">
         <v>22</v>
@@ -12770,10 +12773,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C198" t="b">
         <v>1</v>
@@ -12781,7 +12784,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B199" t="s">
         <v>32</v>
@@ -12792,7 +12795,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>81</v>
@@ -12803,7 +12806,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B201" t="s">
         <v>22</v>
@@ -12814,10 +12817,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C202" t="b">
         <v>1</v>
@@ -12825,7 +12828,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B203" t="s">
         <v>32</v>
@@ -12836,7 +12839,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B204" s="9" t="s">
         <v>81</v>
@@ -12847,7 +12850,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B205" t="s">
         <v>22</v>
@@ -12858,10 +12861,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C206" t="b">
         <v>1</v>
@@ -12869,7 +12872,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B207" t="s">
         <v>32</v>
@@ -12880,7 +12883,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B208" s="9" t="s">
         <v>81</v>
@@ -12891,7 +12894,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B209" t="s">
         <v>22</v>
@@ -12902,10 +12905,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C210" t="b">
         <v>1</v>
@@ -12913,7 +12916,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B211" t="s">
         <v>32</v>
@@ -12924,7 +12927,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B212" s="9" t="s">
         <v>81</v>
@@ -12935,7 +12938,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B213" t="s">
         <v>22</v>
@@ -12946,10 +12949,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C214" t="b">
         <v>1</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B215" t="s">
         <v>32</v>
@@ -12968,7 +12971,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B216" s="9" t="s">
         <v>81</v>
@@ -12979,7 +12982,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B217" t="s">
         <v>22</v>
@@ -12990,10 +12993,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C218" t="b">
         <v>1</v>
@@ -13001,7 +13004,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B219" t="s">
         <v>32</v>
@@ -13012,7 +13015,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B220" s="9" t="s">
         <v>81</v>
@@ -13023,7 +13026,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B221" t="s">
         <v>22</v>
@@ -13034,10 +13037,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C222" t="b">
         <v>1</v>
@@ -13067,7 +13070,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B225" s="9" t="s">
         <v>22</v>
@@ -13078,7 +13081,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B226" s="9" t="s">
         <v>22</v>
@@ -13089,7 +13092,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B227" t="s">
         <v>32</v>
@@ -13100,7 +13103,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>81</v>
@@ -13111,7 +13114,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B229" t="s">
         <v>22</v>
@@ -13122,10 +13125,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C230" t="b">
         <v>1</v>
@@ -13147,12 +13150,23 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>104</v>
+        <v>605</v>
       </c>
       <c r="B233" t="s">
         <v>32</v>
       </c>
       <c r="C233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>604</v>
+      </c>
+      <c r="B234" t="s">
+        <v>25</v>
+      </c>
+      <c r="C234" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/VAC/forms/VAC/VAC.xlsx
+++ b/app/config/tables/VAC/forms/VAC/VAC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5471BB7-766B-4A2A-B074-E016216110EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCB11E8-C415-4B55-B219-1F5309EAAD19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="608">
   <si>
     <t>setting_name</t>
   </si>
@@ -288,12 +288,6 @@
     <t>linked_table</t>
   </si>
   <si>
-    <t>ID = ?</t>
-  </si>
-  <si>
-    <t>[data('ID')]</t>
-  </si>
-  <si>
     <t>{}</t>
   </si>
   <si>
@@ -340,9 +334,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t xml:space="preserve">Yes </t>
@@ -1929,6 +1920,21 @@
   </si>
   <si>
     <t>VISITDATE</t>
+  </si>
+  <si>
+    <t>REGID</t>
+  </si>
+  <si>
+    <t>REGIDC</t>
+  </si>
+  <si>
+    <t>VISITIDC</t>
+  </si>
+  <si>
+    <t>REGID = ?</t>
+  </si>
+  <si>
+    <t>[data('REGID')]</t>
   </si>
 </sst>
 </file>
@@ -2382,7 +2388,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2398,7 +2404,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2406,10 +2412,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2540,7 +2546,7 @@
         <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -2553,7 +2559,7 @@
         <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -2566,7 +2572,7 @@
         <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I6" s="11"/>
     </row>
@@ -2585,7 +2591,7 @@
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2728,10 +2734,10 @@
         <v>75</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -2803,7 +2809,7 @@
         <v>61</v>
       </c>
       <c r="I30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -2814,7 +2820,7 @@
         <v>65</v>
       </c>
       <c r="I31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -2825,7 +2831,7 @@
         <v>68</v>
       </c>
       <c r="I32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2838,10 +2844,10 @@
         <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2849,10 +2855,10 @@
         <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2860,10 +2866,10 @@
         <v>79</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2879,13 +2885,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2901,10 +2907,10 @@
         <v>53</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
@@ -2920,7 +2926,7 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2933,10 +2939,10 @@
         <v>50</v>
       </c>
       <c r="G45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2947,7 +2953,7 @@
         <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s">
         <v>62</v>
@@ -2964,7 +2970,7 @@
         <v>64</v>
       </c>
       <c r="F47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s">
         <v>66</v>
@@ -2978,7 +2984,7 @@
         <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s">
         <v>69</v>
@@ -3028,13 +3034,13 @@
         <v>74</v>
       </c>
       <c r="F55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -3042,7 +3048,7 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -3053,7 +3059,7 @@
         <v>60</v>
       </c>
       <c r="F57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s">
         <v>62</v>
@@ -3070,7 +3076,7 @@
         <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s">
         <v>66</v>
@@ -3084,7 +3090,7 @@
         <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s">
         <v>69</v>
@@ -3103,10 +3109,10 @@
         <v>42</v>
       </c>
       <c r="F61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -3114,10 +3120,10 @@
         <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I62" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -3125,10 +3131,10 @@
         <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -3141,10 +3147,10 @@
         <v>79</v>
       </c>
       <c r="E65" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" t="s">
         <v>140</v>
-      </c>
-      <c r="F65" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3152,10 +3158,10 @@
         <v>81</v>
       </c>
       <c r="E66" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" t="s">
         <v>141</v>
-      </c>
-      <c r="F66" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3163,10 +3169,10 @@
         <v>79</v>
       </c>
       <c r="E67" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" t="s">
         <v>142</v>
-      </c>
-      <c r="F67" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3182,13 +3188,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
         <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3204,7 +3210,7 @@
         <v>53</v>
       </c>
       <c r="F72" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G72" t="s">
         <v>55</v>
@@ -3223,7 +3229,7 @@
         <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3236,10 +3242,10 @@
         <v>50</v>
       </c>
       <c r="G76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3250,7 +3256,7 @@
         <v>60</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G77" t="s">
         <v>62</v>
@@ -3267,7 +3273,7 @@
         <v>64</v>
       </c>
       <c r="F78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G78" t="s">
         <v>66</v>
@@ -3281,7 +3287,7 @@
         <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G79" t="s">
         <v>69</v>
@@ -3328,13 +3334,13 @@
         <v>74</v>
       </c>
       <c r="F86" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
@@ -3342,7 +3348,7 @@
         <v>52</v>
       </c>
       <c r="C87" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
@@ -3353,7 +3359,7 @@
         <v>60</v>
       </c>
       <c r="F88" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G88" t="s">
         <v>62</v>
@@ -3370,7 +3376,7 @@
         <v>64</v>
       </c>
       <c r="F89" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G89" t="s">
         <v>66</v>
@@ -3384,7 +3390,7 @@
         <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G90" t="s">
         <v>69</v>
@@ -3403,10 +3409,10 @@
         <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I92" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -3414,10 +3420,10 @@
         <v>42</v>
       </c>
       <c r="F93" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I93" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
@@ -3425,10 +3431,10 @@
         <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I94" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -3441,10 +3447,10 @@
         <v>79</v>
       </c>
       <c r="E96" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F96" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3452,10 +3458,10 @@
         <v>81</v>
       </c>
       <c r="E97" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F97" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3463,10 +3469,10 @@
         <v>79</v>
       </c>
       <c r="E98" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F98" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3482,13 +3488,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B101" t="s">
         <v>52</v>
       </c>
       <c r="C101" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3504,10 +3510,10 @@
         <v>53</v>
       </c>
       <c r="F103" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G103" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H103" t="s">
         <v>56</v>
@@ -3523,7 +3529,7 @@
         <v>52</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3536,10 +3542,10 @@
         <v>50</v>
       </c>
       <c r="G107" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H107" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3550,7 +3556,7 @@
         <v>60</v>
       </c>
       <c r="F108" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G108" t="s">
         <v>62</v>
@@ -3567,7 +3573,7 @@
         <v>64</v>
       </c>
       <c r="F109" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G109" t="s">
         <v>66</v>
@@ -3581,7 +3587,7 @@
         <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G110" t="s">
         <v>69</v>
@@ -3631,13 +3637,13 @@
         <v>74</v>
       </c>
       <c r="F117" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
@@ -3645,7 +3651,7 @@
         <v>52</v>
       </c>
       <c r="C118" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
@@ -3656,7 +3662,7 @@
         <v>60</v>
       </c>
       <c r="F119" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G119" t="s">
         <v>62</v>
@@ -3673,7 +3679,7 @@
         <v>64</v>
       </c>
       <c r="F120" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G120" t="s">
         <v>66</v>
@@ -3687,7 +3693,7 @@
         <v>32</v>
       </c>
       <c r="F121" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G121" t="s">
         <v>69</v>
@@ -3706,10 +3712,10 @@
         <v>42</v>
       </c>
       <c r="F123" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I123" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -3717,10 +3723,10 @@
         <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I124" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
@@ -3728,10 +3734,10 @@
         <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I125" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
@@ -3744,10 +3750,10 @@
         <v>79</v>
       </c>
       <c r="E127" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F127" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
@@ -3755,10 +3761,10 @@
         <v>81</v>
       </c>
       <c r="E128" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F128" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -3766,10 +3772,10 @@
         <v>79</v>
       </c>
       <c r="E129" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F129" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -3785,13 +3791,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B132" t="s">
         <v>52</v>
       </c>
       <c r="C132" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -3807,7 +3813,7 @@
         <v>53</v>
       </c>
       <c r="F134" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G134" t="s">
         <v>55</v>
@@ -3826,7 +3832,7 @@
         <v>52</v>
       </c>
       <c r="C136" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -3839,10 +3845,10 @@
         <v>50</v>
       </c>
       <c r="G138" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H138" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -3853,7 +3859,7 @@
         <v>60</v>
       </c>
       <c r="F139" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G139" t="s">
         <v>62</v>
@@ -3870,7 +3876,7 @@
         <v>64</v>
       </c>
       <c r="F140" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G140" t="s">
         <v>66</v>
@@ -3884,7 +3890,7 @@
         <v>32</v>
       </c>
       <c r="F141" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G141" t="s">
         <v>69</v>
@@ -3931,13 +3937,13 @@
         <v>74</v>
       </c>
       <c r="F148" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
@@ -3945,7 +3951,7 @@
         <v>52</v>
       </c>
       <c r="C149" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
@@ -3956,7 +3962,7 @@
         <v>60</v>
       </c>
       <c r="F150" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G150" t="s">
         <v>62</v>
@@ -3973,7 +3979,7 @@
         <v>64</v>
       </c>
       <c r="F151" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G151" t="s">
         <v>66</v>
@@ -3987,7 +3993,7 @@
         <v>32</v>
       </c>
       <c r="F152" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G152" t="s">
         <v>69</v>
@@ -4006,10 +4012,10 @@
         <v>42</v>
       </c>
       <c r="F154" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I154" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
@@ -4017,10 +4023,10 @@
         <v>42</v>
       </c>
       <c r="F155" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I155" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
@@ -4028,10 +4034,10 @@
         <v>42</v>
       </c>
       <c r="F156" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I156" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
@@ -4044,10 +4050,10 @@
         <v>79</v>
       </c>
       <c r="E158" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F158" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
@@ -4055,10 +4061,10 @@
         <v>81</v>
       </c>
       <c r="E159" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F159" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
@@ -4066,10 +4072,10 @@
         <v>79</v>
       </c>
       <c r="E160" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F160" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -4085,13 +4091,13 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B163" t="s">
         <v>52</v>
       </c>
       <c r="C163" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -4107,10 +4113,10 @@
         <v>53</v>
       </c>
       <c r="F165" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G165" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H165" t="s">
         <v>56</v>
@@ -4126,7 +4132,7 @@
         <v>52</v>
       </c>
       <c r="C167" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -4139,10 +4145,10 @@
         <v>50</v>
       </c>
       <c r="G169" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H169" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -4153,7 +4159,7 @@
         <v>60</v>
       </c>
       <c r="F170" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G170" t="s">
         <v>62</v>
@@ -4170,7 +4176,7 @@
         <v>64</v>
       </c>
       <c r="F171" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G171" t="s">
         <v>66</v>
@@ -4184,7 +4190,7 @@
         <v>32</v>
       </c>
       <c r="F172" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G172" t="s">
         <v>69</v>
@@ -4234,13 +4240,13 @@
         <v>74</v>
       </c>
       <c r="F179" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
@@ -4248,7 +4254,7 @@
         <v>52</v>
       </c>
       <c r="C180" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
@@ -4259,7 +4265,7 @@
         <v>60</v>
       </c>
       <c r="F181" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G181" t="s">
         <v>62</v>
@@ -4276,7 +4282,7 @@
         <v>64</v>
       </c>
       <c r="F182" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G182" t="s">
         <v>66</v>
@@ -4290,7 +4296,7 @@
         <v>32</v>
       </c>
       <c r="F183" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G183" t="s">
         <v>69</v>
@@ -4309,10 +4315,10 @@
         <v>42</v>
       </c>
       <c r="F185" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I185" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.25">
@@ -4320,10 +4326,10 @@
         <v>42</v>
       </c>
       <c r="F186" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I186" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
@@ -4331,10 +4337,10 @@
         <v>42</v>
       </c>
       <c r="F187" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I187" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
@@ -4347,10 +4353,10 @@
         <v>79</v>
       </c>
       <c r="E189" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F189" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
@@ -4358,10 +4364,10 @@
         <v>81</v>
       </c>
       <c r="E190" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F190" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
@@ -4369,10 +4375,10 @@
         <v>79</v>
       </c>
       <c r="E191" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F191" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.25">
@@ -4388,13 +4394,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B194" t="s">
         <v>52</v>
       </c>
       <c r="C194" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -4410,7 +4416,7 @@
         <v>53</v>
       </c>
       <c r="F196" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G196" t="s">
         <v>55</v>
@@ -4429,7 +4435,7 @@
         <v>52</v>
       </c>
       <c r="C198" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -4442,10 +4448,10 @@
         <v>50</v>
       </c>
       <c r="G200" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H200" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -4456,7 +4462,7 @@
         <v>60</v>
       </c>
       <c r="F201" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G201" t="s">
         <v>62</v>
@@ -4473,7 +4479,7 @@
         <v>64</v>
       </c>
       <c r="F202" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G202" t="s">
         <v>66</v>
@@ -4487,7 +4493,7 @@
         <v>32</v>
       </c>
       <c r="F203" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G203" t="s">
         <v>69</v>
@@ -4534,13 +4540,13 @@
         <v>74</v>
       </c>
       <c r="F210" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -4548,7 +4554,7 @@
         <v>52</v>
       </c>
       <c r="C211" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -4559,7 +4565,7 @@
         <v>60</v>
       </c>
       <c r="F212" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G212" t="s">
         <v>62</v>
@@ -4576,7 +4582,7 @@
         <v>64</v>
       </c>
       <c r="F213" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G213" t="s">
         <v>66</v>
@@ -4590,7 +4596,7 @@
         <v>32</v>
       </c>
       <c r="F214" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G214" t="s">
         <v>69</v>
@@ -4609,10 +4615,10 @@
         <v>42</v>
       </c>
       <c r="F216" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I216" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -4620,10 +4626,10 @@
         <v>42</v>
       </c>
       <c r="F217" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I217" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -4631,10 +4637,10 @@
         <v>42</v>
       </c>
       <c r="F218" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I218" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -4647,10 +4653,10 @@
         <v>79</v>
       </c>
       <c r="E220" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F220" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -4658,10 +4664,10 @@
         <v>81</v>
       </c>
       <c r="E221" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F221" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -4669,10 +4675,10 @@
         <v>79</v>
       </c>
       <c r="E222" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F222" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -4688,13 +4694,13 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B225" t="s">
         <v>52</v>
       </c>
       <c r="C225" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -4710,10 +4716,10 @@
         <v>53</v>
       </c>
       <c r="F227" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G227" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H227" t="s">
         <v>56</v>
@@ -4729,7 +4735,7 @@
         <v>52</v>
       </c>
       <c r="C229" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -4742,10 +4748,10 @@
         <v>50</v>
       </c>
       <c r="G231" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H231" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -4756,7 +4762,7 @@
         <v>60</v>
       </c>
       <c r="F232" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G232" t="s">
         <v>62</v>
@@ -4773,7 +4779,7 @@
         <v>64</v>
       </c>
       <c r="F233" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G233" t="s">
         <v>66</v>
@@ -4787,7 +4793,7 @@
         <v>32</v>
       </c>
       <c r="F234" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G234" t="s">
         <v>69</v>
@@ -4837,13 +4843,13 @@
         <v>74</v>
       </c>
       <c r="F241" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -4851,7 +4857,7 @@
         <v>52</v>
       </c>
       <c r="C242" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -4862,7 +4868,7 @@
         <v>60</v>
       </c>
       <c r="F243" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G243" t="s">
         <v>62</v>
@@ -4879,7 +4885,7 @@
         <v>64</v>
       </c>
       <c r="F244" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G244" t="s">
         <v>66</v>
@@ -4893,7 +4899,7 @@
         <v>32</v>
       </c>
       <c r="F245" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G245" t="s">
         <v>69</v>
@@ -4912,10 +4918,10 @@
         <v>42</v>
       </c>
       <c r="F247" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I247" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -4923,10 +4929,10 @@
         <v>42</v>
       </c>
       <c r="F248" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I248" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -4934,10 +4940,10 @@
         <v>42</v>
       </c>
       <c r="F249" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I249" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -4950,10 +4956,10 @@
         <v>79</v>
       </c>
       <c r="E251" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F251" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -4961,10 +4967,10 @@
         <v>81</v>
       </c>
       <c r="E252" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F252" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -4972,10 +4978,10 @@
         <v>79</v>
       </c>
       <c r="E253" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F253" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -4991,13 +4997,13 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B256" t="s">
         <v>52</v>
       </c>
       <c r="C256" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.25">
@@ -5013,7 +5019,7 @@
         <v>53</v>
       </c>
       <c r="F258" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G258" t="s">
         <v>55</v>
@@ -5032,7 +5038,7 @@
         <v>52</v>
       </c>
       <c r="C260" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.25">
@@ -5045,10 +5051,10 @@
         <v>50</v>
       </c>
       <c r="G262" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H262" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.25">
@@ -5059,7 +5065,7 @@
         <v>60</v>
       </c>
       <c r="F263" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G263" t="s">
         <v>62</v>
@@ -5076,7 +5082,7 @@
         <v>64</v>
       </c>
       <c r="F264" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G264" t="s">
         <v>66</v>
@@ -5090,7 +5096,7 @@
         <v>32</v>
       </c>
       <c r="F265" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G265" t="s">
         <v>69</v>
@@ -5137,13 +5143,13 @@
         <v>74</v>
       </c>
       <c r="F272" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -5151,7 +5157,7 @@
         <v>52</v>
       </c>
       <c r="C273" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -5162,7 +5168,7 @@
         <v>60</v>
       </c>
       <c r="F274" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G274" t="s">
         <v>62</v>
@@ -5179,7 +5185,7 @@
         <v>64</v>
       </c>
       <c r="F275" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G275" t="s">
         <v>66</v>
@@ -5193,7 +5199,7 @@
         <v>32</v>
       </c>
       <c r="F276" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G276" t="s">
         <v>69</v>
@@ -5212,10 +5218,10 @@
         <v>42</v>
       </c>
       <c r="F278" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I278" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -5223,10 +5229,10 @@
         <v>42</v>
       </c>
       <c r="F279" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I279" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -5234,10 +5240,10 @@
         <v>42</v>
       </c>
       <c r="F280" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I280" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -5250,10 +5256,10 @@
         <v>79</v>
       </c>
       <c r="E282" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F282" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -5261,10 +5267,10 @@
         <v>81</v>
       </c>
       <c r="E283" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F283" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -5272,10 +5278,10 @@
         <v>79</v>
       </c>
       <c r="E284" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F284" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -5291,13 +5297,13 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B287" t="s">
         <v>52</v>
       </c>
       <c r="C287" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -5313,10 +5319,10 @@
         <v>53</v>
       </c>
       <c r="F289" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G289" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H289" t="s">
         <v>56</v>
@@ -5332,7 +5338,7 @@
         <v>52</v>
       </c>
       <c r="C291" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
@@ -5345,10 +5351,10 @@
         <v>50</v>
       </c>
       <c r="G293" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H293" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
@@ -5359,7 +5365,7 @@
         <v>60</v>
       </c>
       <c r="F294" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G294" t="s">
         <v>62</v>
@@ -5376,7 +5382,7 @@
         <v>64</v>
       </c>
       <c r="F295" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G295" t="s">
         <v>66</v>
@@ -5390,7 +5396,7 @@
         <v>32</v>
       </c>
       <c r="F296" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G296" t="s">
         <v>69</v>
@@ -5440,13 +5446,13 @@
         <v>74</v>
       </c>
       <c r="F303" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.25">
@@ -5454,7 +5460,7 @@
         <v>52</v>
       </c>
       <c r="C304" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -5465,7 +5471,7 @@
         <v>60</v>
       </c>
       <c r="F305" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G305" t="s">
         <v>62</v>
@@ -5482,7 +5488,7 @@
         <v>64</v>
       </c>
       <c r="F306" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G306" t="s">
         <v>66</v>
@@ -5496,7 +5502,7 @@
         <v>32</v>
       </c>
       <c r="F307" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G307" t="s">
         <v>69</v>
@@ -5515,10 +5521,10 @@
         <v>42</v>
       </c>
       <c r="F309" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I309" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -5526,10 +5532,10 @@
         <v>42</v>
       </c>
       <c r="F310" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I310" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -5537,10 +5543,10 @@
         <v>42</v>
       </c>
       <c r="F311" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I311" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -5553,10 +5559,10 @@
         <v>79</v>
       </c>
       <c r="E313" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F313" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -5564,10 +5570,10 @@
         <v>81</v>
       </c>
       <c r="E314" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F314" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -5575,10 +5581,10 @@
         <v>79</v>
       </c>
       <c r="E315" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F315" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -5594,13 +5600,13 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B318" t="s">
         <v>52</v>
       </c>
       <c r="C318" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -5616,7 +5622,7 @@
         <v>53</v>
       </c>
       <c r="F320" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G320" t="s">
         <v>55</v>
@@ -5635,7 +5641,7 @@
         <v>52</v>
       </c>
       <c r="C322" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.25">
@@ -5648,10 +5654,10 @@
         <v>50</v>
       </c>
       <c r="G324" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H324" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="325" spans="2:8" x14ac:dyDescent="0.25">
@@ -5662,7 +5668,7 @@
         <v>60</v>
       </c>
       <c r="F325" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G325" t="s">
         <v>62</v>
@@ -5679,7 +5685,7 @@
         <v>64</v>
       </c>
       <c r="F326" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G326" t="s">
         <v>66</v>
@@ -5693,7 +5699,7 @@
         <v>32</v>
       </c>
       <c r="F327" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G327" t="s">
         <v>69</v>
@@ -5740,13 +5746,13 @@
         <v>74</v>
       </c>
       <c r="F334" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G334" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H334" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="335" spans="2:8" x14ac:dyDescent="0.25">
@@ -5754,7 +5760,7 @@
         <v>52</v>
       </c>
       <c r="C335" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="336" spans="2:8" x14ac:dyDescent="0.25">
@@ -5765,7 +5771,7 @@
         <v>60</v>
       </c>
       <c r="F336" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G336" t="s">
         <v>62</v>
@@ -5782,7 +5788,7 @@
         <v>64</v>
       </c>
       <c r="F337" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G337" t="s">
         <v>66</v>
@@ -5796,7 +5802,7 @@
         <v>32</v>
       </c>
       <c r="F338" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G338" t="s">
         <v>69</v>
@@ -5815,10 +5821,10 @@
         <v>42</v>
       </c>
       <c r="F340" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I340" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -5826,10 +5832,10 @@
         <v>42</v>
       </c>
       <c r="F341" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I341" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -5837,10 +5843,10 @@
         <v>42</v>
       </c>
       <c r="F342" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I342" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -5853,10 +5859,10 @@
         <v>79</v>
       </c>
       <c r="E344" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F344" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -5864,10 +5870,10 @@
         <v>81</v>
       </c>
       <c r="E345" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F345" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -5875,10 +5881,10 @@
         <v>79</v>
       </c>
       <c r="E346" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F346" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -5894,13 +5900,13 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B349" t="s">
         <v>52</v>
       </c>
       <c r="C349" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -5916,10 +5922,10 @@
         <v>53</v>
       </c>
       <c r="F351" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G351" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H351" t="s">
         <v>56</v>
@@ -5935,7 +5941,7 @@
         <v>52</v>
       </c>
       <c r="C353" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="354" spans="2:8" x14ac:dyDescent="0.25">
@@ -5948,10 +5954,10 @@
         <v>50</v>
       </c>
       <c r="G355" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H355" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="356" spans="2:8" x14ac:dyDescent="0.25">
@@ -5962,7 +5968,7 @@
         <v>60</v>
       </c>
       <c r="F356" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G356" t="s">
         <v>62</v>
@@ -5979,7 +5985,7 @@
         <v>64</v>
       </c>
       <c r="F357" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G357" t="s">
         <v>66</v>
@@ -5993,7 +5999,7 @@
         <v>32</v>
       </c>
       <c r="F358" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G358" t="s">
         <v>69</v>
@@ -6043,13 +6049,13 @@
         <v>74</v>
       </c>
       <c r="F365" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H365" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="366" spans="2:8" x14ac:dyDescent="0.25">
@@ -6057,7 +6063,7 @@
         <v>52</v>
       </c>
       <c r="C366" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="367" spans="2:8" x14ac:dyDescent="0.25">
@@ -6068,7 +6074,7 @@
         <v>60</v>
       </c>
       <c r="F367" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G367" t="s">
         <v>62</v>
@@ -6085,7 +6091,7 @@
         <v>64</v>
       </c>
       <c r="F368" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G368" t="s">
         <v>66</v>
@@ -6099,7 +6105,7 @@
         <v>32</v>
       </c>
       <c r="F369" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G369" t="s">
         <v>69</v>
@@ -6118,10 +6124,10 @@
         <v>42</v>
       </c>
       <c r="F371" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I371" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
@@ -6129,10 +6135,10 @@
         <v>42</v>
       </c>
       <c r="F372" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I372" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
@@ -6140,10 +6146,10 @@
         <v>42</v>
       </c>
       <c r="F373" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I373" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
@@ -6156,10 +6162,10 @@
         <v>79</v>
       </c>
       <c r="E375" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F375" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
@@ -6167,10 +6173,10 @@
         <v>81</v>
       </c>
       <c r="E376" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F376" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
@@ -6178,10 +6184,10 @@
         <v>79</v>
       </c>
       <c r="E377" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F377" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -6197,13 +6203,13 @@
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B380" t="s">
         <v>52</v>
       </c>
       <c r="C380" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
@@ -6219,7 +6225,7 @@
         <v>53</v>
       </c>
       <c r="F382" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G382" t="s">
         <v>55</v>
@@ -6238,7 +6244,7 @@
         <v>52</v>
       </c>
       <c r="C384" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="385" spans="2:8" x14ac:dyDescent="0.25">
@@ -6251,10 +6257,10 @@
         <v>50</v>
       </c>
       <c r="G386" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H386" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="387" spans="2:8" x14ac:dyDescent="0.25">
@@ -6265,7 +6271,7 @@
         <v>60</v>
       </c>
       <c r="F387" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G387" t="s">
         <v>62</v>
@@ -6282,7 +6288,7 @@
         <v>64</v>
       </c>
       <c r="F388" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G388" t="s">
         <v>66</v>
@@ -6296,7 +6302,7 @@
         <v>32</v>
       </c>
       <c r="F389" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G389" t="s">
         <v>69</v>
@@ -6343,13 +6349,13 @@
         <v>74</v>
       </c>
       <c r="F396" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H396" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="397" spans="2:8" x14ac:dyDescent="0.25">
@@ -6357,7 +6363,7 @@
         <v>52</v>
       </c>
       <c r="C397" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="398" spans="2:8" x14ac:dyDescent="0.25">
@@ -6368,7 +6374,7 @@
         <v>60</v>
       </c>
       <c r="F398" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G398" t="s">
         <v>62</v>
@@ -6385,7 +6391,7 @@
         <v>64</v>
       </c>
       <c r="F399" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G399" t="s">
         <v>66</v>
@@ -6399,7 +6405,7 @@
         <v>32</v>
       </c>
       <c r="F400" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G400" t="s">
         <v>69</v>
@@ -6418,10 +6424,10 @@
         <v>42</v>
       </c>
       <c r="F402" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I402" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
@@ -6429,10 +6435,10 @@
         <v>42</v>
       </c>
       <c r="F403" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I403" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
@@ -6440,10 +6446,10 @@
         <v>42</v>
       </c>
       <c r="F404" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I404" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
@@ -6456,10 +6462,10 @@
         <v>79</v>
       </c>
       <c r="E406" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F406" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
@@ -6467,10 +6473,10 @@
         <v>81</v>
       </c>
       <c r="E407" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F407" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
@@ -6478,10 +6484,10 @@
         <v>79</v>
       </c>
       <c r="E408" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F408" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
@@ -6497,13 +6503,13 @@
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B411" t="s">
         <v>52</v>
       </c>
       <c r="C411" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
@@ -6519,10 +6525,10 @@
         <v>53</v>
       </c>
       <c r="F413" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G413" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H413" t="s">
         <v>56</v>
@@ -6538,7 +6544,7 @@
         <v>52</v>
       </c>
       <c r="C415" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
@@ -6551,10 +6557,10 @@
         <v>50</v>
       </c>
       <c r="G417" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H417" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="418" spans="2:8" x14ac:dyDescent="0.25">
@@ -6565,7 +6571,7 @@
         <v>60</v>
       </c>
       <c r="F418" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G418" t="s">
         <v>62</v>
@@ -6582,7 +6588,7 @@
         <v>64</v>
       </c>
       <c r="F419" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G419" t="s">
         <v>66</v>
@@ -6596,7 +6602,7 @@
         <v>32</v>
       </c>
       <c r="F420" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G420" t="s">
         <v>69</v>
@@ -6646,13 +6652,13 @@
         <v>74</v>
       </c>
       <c r="F427" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G427" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H427" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="428" spans="2:8" x14ac:dyDescent="0.25">
@@ -6660,7 +6666,7 @@
         <v>52</v>
       </c>
       <c r="C428" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="429" spans="2:8" x14ac:dyDescent="0.25">
@@ -6671,7 +6677,7 @@
         <v>60</v>
       </c>
       <c r="F429" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G429" t="s">
         <v>62</v>
@@ -6688,7 +6694,7 @@
         <v>64</v>
       </c>
       <c r="F430" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G430" t="s">
         <v>66</v>
@@ -6702,7 +6708,7 @@
         <v>32</v>
       </c>
       <c r="F431" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G431" t="s">
         <v>69</v>
@@ -6721,10 +6727,10 @@
         <v>42</v>
       </c>
       <c r="F433" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I433" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
@@ -6732,10 +6738,10 @@
         <v>42</v>
       </c>
       <c r="F434" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I434" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
@@ -6743,10 +6749,10 @@
         <v>42</v>
       </c>
       <c r="F435" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I435" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
@@ -6759,10 +6765,10 @@
         <v>79</v>
       </c>
       <c r="E437" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F437" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
@@ -6770,10 +6776,10 @@
         <v>81</v>
       </c>
       <c r="E438" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F438" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
@@ -6781,10 +6787,10 @@
         <v>79</v>
       </c>
       <c r="E439" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F439" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
@@ -6800,13 +6806,13 @@
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B442" t="s">
         <v>52</v>
       </c>
       <c r="C442" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.25">
@@ -6822,7 +6828,7 @@
         <v>53</v>
       </c>
       <c r="F444" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G444" t="s">
         <v>55</v>
@@ -6841,7 +6847,7 @@
         <v>52</v>
       </c>
       <c r="C446" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.25">
@@ -6854,10 +6860,10 @@
         <v>50</v>
       </c>
       <c r="G448" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H448" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="449" spans="2:9" x14ac:dyDescent="0.25">
@@ -6868,7 +6874,7 @@
         <v>60</v>
       </c>
       <c r="F449" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G449" t="s">
         <v>62</v>
@@ -6885,7 +6891,7 @@
         <v>64</v>
       </c>
       <c r="F450" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G450" t="s">
         <v>66</v>
@@ -6899,7 +6905,7 @@
         <v>32</v>
       </c>
       <c r="F451" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G451" t="s">
         <v>69</v>
@@ -6946,13 +6952,13 @@
         <v>74</v>
       </c>
       <c r="F458" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G458" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H458" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="459" spans="2:9" x14ac:dyDescent="0.25">
@@ -6960,7 +6966,7 @@
         <v>52</v>
       </c>
       <c r="C459" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="460" spans="2:9" x14ac:dyDescent="0.25">
@@ -6971,7 +6977,7 @@
         <v>60</v>
       </c>
       <c r="F460" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G460" t="s">
         <v>62</v>
@@ -6988,7 +6994,7 @@
         <v>64</v>
       </c>
       <c r="F461" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G461" t="s">
         <v>66</v>
@@ -7002,7 +7008,7 @@
         <v>32</v>
       </c>
       <c r="F462" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G462" t="s">
         <v>69</v>
@@ -7021,10 +7027,10 @@
         <v>42</v>
       </c>
       <c r="F464" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I464" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
@@ -7032,10 +7038,10 @@
         <v>42</v>
       </c>
       <c r="F465" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I465" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.25">
@@ -7043,10 +7049,10 @@
         <v>42</v>
       </c>
       <c r="F466" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I466" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.25">
@@ -7059,10 +7065,10 @@
         <v>79</v>
       </c>
       <c r="E468" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F468" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
@@ -7070,10 +7076,10 @@
         <v>81</v>
       </c>
       <c r="E469" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F469" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
@@ -7081,10 +7087,10 @@
         <v>79</v>
       </c>
       <c r="E470" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F470" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.25">
@@ -7100,13 +7106,13 @@
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B473" t="s">
         <v>52</v>
       </c>
       <c r="C473" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.25">
@@ -7122,10 +7128,10 @@
         <v>53</v>
       </c>
       <c r="F475" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G475" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H475" t="s">
         <v>56</v>
@@ -7141,7 +7147,7 @@
         <v>52</v>
       </c>
       <c r="C477" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
@@ -7154,10 +7160,10 @@
         <v>50</v>
       </c>
       <c r="G479" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H479" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.25">
@@ -7168,7 +7174,7 @@
         <v>60</v>
       </c>
       <c r="F480" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G480" t="s">
         <v>62</v>
@@ -7185,7 +7191,7 @@
         <v>64</v>
       </c>
       <c r="F481" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G481" t="s">
         <v>66</v>
@@ -7199,7 +7205,7 @@
         <v>32</v>
       </c>
       <c r="F482" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G482" t="s">
         <v>69</v>
@@ -7249,13 +7255,13 @@
         <v>74</v>
       </c>
       <c r="F489" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G489" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H489" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="490" spans="2:9" x14ac:dyDescent="0.25">
@@ -7263,7 +7269,7 @@
         <v>52</v>
       </c>
       <c r="C490" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="491" spans="2:9" x14ac:dyDescent="0.25">
@@ -7274,7 +7280,7 @@
         <v>60</v>
       </c>
       <c r="F491" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G491" t="s">
         <v>62</v>
@@ -7291,7 +7297,7 @@
         <v>64</v>
       </c>
       <c r="F492" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G492" t="s">
         <v>66</v>
@@ -7305,7 +7311,7 @@
         <v>32</v>
       </c>
       <c r="F493" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G493" t="s">
         <v>69</v>
@@ -7324,10 +7330,10 @@
         <v>42</v>
       </c>
       <c r="F495" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I495" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="496" spans="2:9" x14ac:dyDescent="0.25">
@@ -7335,10 +7341,10 @@
         <v>42</v>
       </c>
       <c r="F496" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I496" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.25">
@@ -7346,10 +7352,10 @@
         <v>42</v>
       </c>
       <c r="F497" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I497" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
@@ -7362,10 +7368,10 @@
         <v>79</v>
       </c>
       <c r="E499" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F499" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.25">
@@ -7373,10 +7379,10 @@
         <v>81</v>
       </c>
       <c r="E500" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F500" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.25">
@@ -7384,10 +7390,10 @@
         <v>79</v>
       </c>
       <c r="E501" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F501" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
@@ -7403,13 +7409,13 @@
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" s="10" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B504" t="s">
         <v>52</v>
       </c>
       <c r="C504" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.25">
@@ -7425,7 +7431,7 @@
         <v>53</v>
       </c>
       <c r="F506" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G506" t="s">
         <v>55</v>
@@ -7444,7 +7450,7 @@
         <v>52</v>
       </c>
       <c r="C508" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.25">
@@ -7457,10 +7463,10 @@
         <v>50</v>
       </c>
       <c r="G510" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H510" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
@@ -7471,7 +7477,7 @@
         <v>60</v>
       </c>
       <c r="F511" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G511" t="s">
         <v>62</v>
@@ -7488,7 +7494,7 @@
         <v>64</v>
       </c>
       <c r="F512" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G512" t="s">
         <v>66</v>
@@ -7502,7 +7508,7 @@
         <v>32</v>
       </c>
       <c r="F513" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G513" t="s">
         <v>69</v>
@@ -7549,13 +7555,13 @@
         <v>74</v>
       </c>
       <c r="F520" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H520" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="521" spans="2:9" x14ac:dyDescent="0.25">
@@ -7563,7 +7569,7 @@
         <v>52</v>
       </c>
       <c r="C521" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="522" spans="2:9" x14ac:dyDescent="0.25">
@@ -7574,7 +7580,7 @@
         <v>60</v>
       </c>
       <c r="F522" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G522" t="s">
         <v>62</v>
@@ -7591,7 +7597,7 @@
         <v>64</v>
       </c>
       <c r="F523" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G523" t="s">
         <v>66</v>
@@ -7605,7 +7611,7 @@
         <v>32</v>
       </c>
       <c r="F524" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G524" t="s">
         <v>69</v>
@@ -7624,10 +7630,10 @@
         <v>42</v>
       </c>
       <c r="F526" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I526" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="527" spans="2:9" x14ac:dyDescent="0.25">
@@ -7635,10 +7641,10 @@
         <v>42</v>
       </c>
       <c r="F527" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I527" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="528" spans="2:9" x14ac:dyDescent="0.25">
@@ -7646,10 +7652,10 @@
         <v>42</v>
       </c>
       <c r="F528" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I528" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
@@ -7662,10 +7668,10 @@
         <v>79</v>
       </c>
       <c r="E530" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F530" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
@@ -7673,10 +7679,10 @@
         <v>81</v>
       </c>
       <c r="E531" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F531" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
@@ -7684,10 +7690,10 @@
         <v>79</v>
       </c>
       <c r="E532" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F532" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
@@ -7703,13 +7709,13 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="14" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B535" t="s">
         <v>52</v>
       </c>
       <c r="C535" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
@@ -7725,10 +7731,10 @@
         <v>53</v>
       </c>
       <c r="F537" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G537" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H537" t="s">
         <v>56</v>
@@ -7744,7 +7750,7 @@
         <v>52</v>
       </c>
       <c r="C539" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
@@ -7757,10 +7763,10 @@
         <v>50</v>
       </c>
       <c r="G541" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H541" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
@@ -7771,7 +7777,7 @@
         <v>60</v>
       </c>
       <c r="F542" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G542" t="s">
         <v>62</v>
@@ -7788,7 +7794,7 @@
         <v>64</v>
       </c>
       <c r="F543" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G543" t="s">
         <v>66</v>
@@ -7802,7 +7808,7 @@
         <v>32</v>
       </c>
       <c r="F544" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G544" t="s">
         <v>69</v>
@@ -7852,13 +7858,13 @@
         <v>74</v>
       </c>
       <c r="F551" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G551" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H551" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="552" spans="2:9" x14ac:dyDescent="0.25">
@@ -7866,7 +7872,7 @@
         <v>52</v>
       </c>
       <c r="C552" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="553" spans="2:9" x14ac:dyDescent="0.25">
@@ -7877,7 +7883,7 @@
         <v>60</v>
       </c>
       <c r="F553" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G553" t="s">
         <v>62</v>
@@ -7894,7 +7900,7 @@
         <v>64</v>
       </c>
       <c r="F554" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G554" t="s">
         <v>66</v>
@@ -7908,7 +7914,7 @@
         <v>32</v>
       </c>
       <c r="F555" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G555" t="s">
         <v>69</v>
@@ -7927,10 +7933,10 @@
         <v>42</v>
       </c>
       <c r="F557" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I557" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="558" spans="2:9" x14ac:dyDescent="0.25">
@@ -7938,10 +7944,10 @@
         <v>42</v>
       </c>
       <c r="F558" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I558" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="559" spans="2:9" x14ac:dyDescent="0.25">
@@ -7949,10 +7955,10 @@
         <v>42</v>
       </c>
       <c r="F559" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I559" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="560" spans="2:9" x14ac:dyDescent="0.25">
@@ -7965,10 +7971,10 @@
         <v>79</v>
       </c>
       <c r="E561" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F561" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
@@ -7976,10 +7982,10 @@
         <v>81</v>
       </c>
       <c r="E562" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F562" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
@@ -7987,10 +7993,10 @@
         <v>79</v>
       </c>
       <c r="E563" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F563" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
@@ -8006,13 +8012,13 @@
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B566" t="s">
         <v>52</v>
       </c>
       <c r="C566" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
@@ -8028,7 +8034,7 @@
         <v>53</v>
       </c>
       <c r="F568" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G568" t="s">
         <v>55</v>
@@ -8047,7 +8053,7 @@
         <v>52</v>
       </c>
       <c r="C570" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
@@ -8060,10 +8066,10 @@
         <v>50</v>
       </c>
       <c r="G572" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H572" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
@@ -8074,7 +8080,7 @@
         <v>60</v>
       </c>
       <c r="F573" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G573" t="s">
         <v>62</v>
@@ -8091,7 +8097,7 @@
         <v>64</v>
       </c>
       <c r="F574" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G574" t="s">
         <v>66</v>
@@ -8105,7 +8111,7 @@
         <v>32</v>
       </c>
       <c r="F575" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G575" t="s">
         <v>69</v>
@@ -8152,13 +8158,13 @@
         <v>74</v>
       </c>
       <c r="F582" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G582" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H582" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="583" spans="2:9" x14ac:dyDescent="0.25">
@@ -8166,7 +8172,7 @@
         <v>52</v>
       </c>
       <c r="C583" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="584" spans="2:9" x14ac:dyDescent="0.25">
@@ -8177,7 +8183,7 @@
         <v>60</v>
       </c>
       <c r="F584" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G584" t="s">
         <v>62</v>
@@ -8194,7 +8200,7 @@
         <v>64</v>
       </c>
       <c r="F585" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G585" t="s">
         <v>66</v>
@@ -8208,7 +8214,7 @@
         <v>32</v>
       </c>
       <c r="F586" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G586" t="s">
         <v>69</v>
@@ -8227,10 +8233,10 @@
         <v>42</v>
       </c>
       <c r="F588" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I588" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="589" spans="2:9" x14ac:dyDescent="0.25">
@@ -8238,10 +8244,10 @@
         <v>42</v>
       </c>
       <c r="F589" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I589" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="590" spans="2:9" x14ac:dyDescent="0.25">
@@ -8249,10 +8255,10 @@
         <v>42</v>
       </c>
       <c r="F590" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I590" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="591" spans="2:9" x14ac:dyDescent="0.25">
@@ -8265,10 +8271,10 @@
         <v>79</v>
       </c>
       <c r="E592" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F592" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.25">
@@ -8276,10 +8282,10 @@
         <v>81</v>
       </c>
       <c r="E593" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F593" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.25">
@@ -8287,10 +8293,10 @@
         <v>79</v>
       </c>
       <c r="E594" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F594" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.25">
@@ -8306,13 +8312,13 @@
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="14" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B597" t="s">
         <v>52</v>
       </c>
       <c r="C597" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.25">
@@ -8328,10 +8334,10 @@
         <v>53</v>
       </c>
       <c r="F599" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G599" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H599" t="s">
         <v>56</v>
@@ -8347,7 +8353,7 @@
         <v>52</v>
       </c>
       <c r="C601" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.25">
@@ -8360,10 +8366,10 @@
         <v>50</v>
       </c>
       <c r="G603" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H603" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.25">
@@ -8374,7 +8380,7 @@
         <v>60</v>
       </c>
       <c r="F604" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G604" t="s">
         <v>62</v>
@@ -8391,7 +8397,7 @@
         <v>64</v>
       </c>
       <c r="F605" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G605" t="s">
         <v>66</v>
@@ -8405,7 +8411,7 @@
         <v>32</v>
       </c>
       <c r="F606" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G606" t="s">
         <v>69</v>
@@ -8455,13 +8461,13 @@
         <v>74</v>
       </c>
       <c r="F613" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G613" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H613" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.25">
@@ -8469,7 +8475,7 @@
         <v>52</v>
       </c>
       <c r="C614" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.25">
@@ -8480,7 +8486,7 @@
         <v>60</v>
       </c>
       <c r="F615" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G615" t="s">
         <v>62</v>
@@ -8497,7 +8503,7 @@
         <v>64</v>
       </c>
       <c r="F616" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G616" t="s">
         <v>66</v>
@@ -8511,7 +8517,7 @@
         <v>32</v>
       </c>
       <c r="F617" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G617" t="s">
         <v>69</v>
@@ -8530,10 +8536,10 @@
         <v>42</v>
       </c>
       <c r="F619" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I619" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
@@ -8541,10 +8547,10 @@
         <v>42</v>
       </c>
       <c r="F620" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I620" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
@@ -8552,10 +8558,10 @@
         <v>42</v>
       </c>
       <c r="F621" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I621" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
@@ -8585,9 +8591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8595,7 +8601,7 @@
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -8638,22 +8644,22 @@
         <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G2" t="s">
         <v>85</v>
       </c>
-      <c r="F2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" t="s">
-        <v>87</v>
-      </c>
       <c r="H2" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
@@ -8667,22 +8673,22 @@
         <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F3" t="s">
+        <v>607</v>
+      </c>
+      <c r="G3" t="s">
         <v>85</v>
       </c>
-      <c r="F3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" t="s">
-        <v>87</v>
-      </c>
       <c r="H3" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
         <v>68</v>
@@ -8696,22 +8702,22 @@
         <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E4" t="s">
+        <v>606</v>
+      </c>
+      <c r="F4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G4" t="s">
         <v>85</v>
       </c>
-      <c r="F4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" t="s">
-        <v>87</v>
-      </c>
       <c r="H4" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
         <v>65</v>
@@ -8719,1655 +8725,1655 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E5" t="s">
+        <v>606</v>
+      </c>
+      <c r="F5" t="s">
+        <v>607</v>
+      </c>
+      <c r="G5" t="s">
         <v>85</v>
       </c>
-      <c r="F5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" t="s">
         <v>87</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E6" t="s">
+        <v>606</v>
+      </c>
+      <c r="F6" t="s">
+        <v>607</v>
+      </c>
+      <c r="G6" t="s">
         <v>85</v>
       </c>
-      <c r="F6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" t="s">
-        <v>87</v>
-      </c>
       <c r="H6" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F7" t="s">
+        <v>607</v>
+      </c>
+      <c r="G7" t="s">
         <v>85</v>
       </c>
-      <c r="F7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" t="s">
-        <v>87</v>
-      </c>
       <c r="H7" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D8" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E8" t="s">
+        <v>606</v>
+      </c>
+      <c r="F8" t="s">
+        <v>607</v>
+      </c>
+      <c r="G8" t="s">
         <v>85</v>
       </c>
-      <c r="F8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" t="s">
-        <v>87</v>
-      </c>
       <c r="H8" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D9" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E9" t="s">
+        <v>606</v>
+      </c>
+      <c r="F9" t="s">
+        <v>607</v>
+      </c>
+      <c r="G9" t="s">
         <v>85</v>
       </c>
-      <c r="F9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" t="s">
-        <v>87</v>
-      </c>
       <c r="H9" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D10" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E10" t="s">
+        <v>606</v>
+      </c>
+      <c r="F10" t="s">
+        <v>607</v>
+      </c>
+      <c r="G10" t="s">
         <v>85</v>
       </c>
-      <c r="F10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" t="s">
-        <v>87</v>
-      </c>
       <c r="H10" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F11" t="s">
+        <v>607</v>
+      </c>
+      <c r="G11" t="s">
         <v>85</v>
       </c>
-      <c r="F11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" t="s">
-        <v>87</v>
-      </c>
       <c r="H11" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D12" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E12" t="s">
+        <v>606</v>
+      </c>
+      <c r="F12" t="s">
+        <v>607</v>
+      </c>
+      <c r="G12" t="s">
         <v>85</v>
       </c>
-      <c r="F12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" t="s">
-        <v>87</v>
-      </c>
       <c r="H12" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D13" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E13" t="s">
+        <v>606</v>
+      </c>
+      <c r="F13" t="s">
+        <v>607</v>
+      </c>
+      <c r="G13" t="s">
         <v>85</v>
       </c>
-      <c r="F13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" t="s">
-        <v>87</v>
-      </c>
       <c r="H13" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D14" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E14" t="s">
+        <v>606</v>
+      </c>
+      <c r="F14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G14" t="s">
         <v>85</v>
       </c>
-      <c r="F14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" t="s">
-        <v>87</v>
-      </c>
       <c r="H14" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D15" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E15" t="s">
+        <v>606</v>
+      </c>
+      <c r="F15" t="s">
+        <v>607</v>
+      </c>
+      <c r="G15" t="s">
         <v>85</v>
       </c>
-      <c r="F15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" t="s">
-        <v>87</v>
-      </c>
       <c r="H15" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D16" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E16" t="s">
+        <v>606</v>
+      </c>
+      <c r="F16" t="s">
+        <v>607</v>
+      </c>
+      <c r="G16" t="s">
         <v>85</v>
       </c>
-      <c r="F16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" t="s">
-        <v>87</v>
-      </c>
       <c r="H16" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D17" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E17" t="s">
+        <v>606</v>
+      </c>
+      <c r="F17" t="s">
+        <v>607</v>
+      </c>
+      <c r="G17" t="s">
         <v>85</v>
       </c>
-      <c r="F17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" t="s">
-        <v>87</v>
-      </c>
       <c r="H17" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D18" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E18" t="s">
+        <v>606</v>
+      </c>
+      <c r="F18" t="s">
+        <v>607</v>
+      </c>
+      <c r="G18" t="s">
         <v>85</v>
       </c>
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" t="s">
-        <v>87</v>
-      </c>
       <c r="H18" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D19" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E19" t="s">
+        <v>606</v>
+      </c>
+      <c r="F19" t="s">
+        <v>607</v>
+      </c>
+      <c r="G19" t="s">
         <v>85</v>
       </c>
-      <c r="F19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" t="s">
-        <v>87</v>
-      </c>
       <c r="H19" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D20" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E20" t="s">
+        <v>606</v>
+      </c>
+      <c r="F20" t="s">
+        <v>607</v>
+      </c>
+      <c r="G20" t="s">
         <v>85</v>
       </c>
-      <c r="F20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" t="s">
-        <v>87</v>
-      </c>
       <c r="H20" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D21" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E21" t="s">
+        <v>606</v>
+      </c>
+      <c r="F21" t="s">
+        <v>607</v>
+      </c>
+      <c r="G21" t="s">
         <v>85</v>
       </c>
-      <c r="F21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" t="s">
-        <v>87</v>
-      </c>
       <c r="H21" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D22" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E22" t="s">
+        <v>606</v>
+      </c>
+      <c r="F22" t="s">
+        <v>607</v>
+      </c>
+      <c r="G22" t="s">
         <v>85</v>
       </c>
-      <c r="F22" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" t="s">
-        <v>87</v>
-      </c>
       <c r="H22" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D23" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E23" t="s">
+        <v>606</v>
+      </c>
+      <c r="F23" t="s">
+        <v>607</v>
+      </c>
+      <c r="G23" t="s">
         <v>85</v>
       </c>
-      <c r="F23" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" t="s">
-        <v>87</v>
-      </c>
       <c r="H23" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D24" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E24" t="s">
+        <v>606</v>
+      </c>
+      <c r="F24" t="s">
+        <v>607</v>
+      </c>
+      <c r="G24" t="s">
         <v>85</v>
       </c>
-      <c r="F24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" t="s">
-        <v>87</v>
-      </c>
       <c r="H24" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s">
         <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D25" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E25" t="s">
+        <v>606</v>
+      </c>
+      <c r="F25" t="s">
+        <v>607</v>
+      </c>
+      <c r="G25" t="s">
         <v>85</v>
       </c>
-      <c r="F25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" t="s">
-        <v>87</v>
-      </c>
       <c r="H25" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s">
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D26" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E26" t="s">
+        <v>606</v>
+      </c>
+      <c r="F26" t="s">
+        <v>607</v>
+      </c>
+      <c r="G26" t="s">
         <v>85</v>
       </c>
-      <c r="F26" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" t="s">
-        <v>87</v>
-      </c>
       <c r="H26" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I26" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s">
         <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D27" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E27" t="s">
+        <v>606</v>
+      </c>
+      <c r="F27" t="s">
+        <v>607</v>
+      </c>
+      <c r="G27" t="s">
         <v>85</v>
       </c>
-      <c r="F27" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" t="s">
-        <v>87</v>
-      </c>
       <c r="H27" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s">
         <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D28" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E28" t="s">
+        <v>606</v>
+      </c>
+      <c r="F28" t="s">
+        <v>607</v>
+      </c>
+      <c r="G28" t="s">
         <v>85</v>
       </c>
-      <c r="F28" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" t="s">
-        <v>87</v>
-      </c>
       <c r="H28" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I28" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s">
         <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D29" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E29" t="s">
+        <v>606</v>
+      </c>
+      <c r="F29" t="s">
+        <v>607</v>
+      </c>
+      <c r="G29" t="s">
         <v>85</v>
       </c>
-      <c r="F29" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" t="s">
-        <v>87</v>
-      </c>
       <c r="H29" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I29" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s">
         <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D30" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E30" t="s">
+        <v>606</v>
+      </c>
+      <c r="F30" t="s">
+        <v>607</v>
+      </c>
+      <c r="G30" t="s">
         <v>85</v>
       </c>
-      <c r="F30" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" t="s">
-        <v>87</v>
-      </c>
       <c r="H30" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s">
         <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D31" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E31" t="s">
+        <v>606</v>
+      </c>
+      <c r="F31" t="s">
+        <v>607</v>
+      </c>
+      <c r="G31" t="s">
         <v>85</v>
       </c>
-      <c r="F31" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" t="s">
-        <v>87</v>
-      </c>
       <c r="H31" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s">
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D32" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E32" t="s">
+        <v>606</v>
+      </c>
+      <c r="F32" t="s">
+        <v>607</v>
+      </c>
+      <c r="G32" t="s">
         <v>85</v>
       </c>
-      <c r="F32" t="s">
-        <v>86</v>
-      </c>
-      <c r="G32" t="s">
-        <v>87</v>
-      </c>
       <c r="H32" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I32" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s">
         <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D33" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E33" t="s">
+        <v>606</v>
+      </c>
+      <c r="F33" t="s">
+        <v>607</v>
+      </c>
+      <c r="G33" t="s">
         <v>85</v>
       </c>
-      <c r="F33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" t="s">
-        <v>87</v>
-      </c>
       <c r="H33" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D34" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E34" t="s">
+        <v>606</v>
+      </c>
+      <c r="F34" t="s">
+        <v>607</v>
+      </c>
+      <c r="G34" t="s">
         <v>85</v>
       </c>
-      <c r="F34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" t="s">
-        <v>87</v>
-      </c>
       <c r="H34" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I34" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D35" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E35" t="s">
+        <v>606</v>
+      </c>
+      <c r="F35" t="s">
+        <v>607</v>
+      </c>
+      <c r="G35" t="s">
         <v>85</v>
       </c>
-      <c r="F35" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" t="s">
-        <v>87</v>
-      </c>
       <c r="H35" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I35" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s">
         <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D36" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E36" t="s">
+        <v>606</v>
+      </c>
+      <c r="F36" t="s">
+        <v>607</v>
+      </c>
+      <c r="G36" t="s">
         <v>85</v>
       </c>
-      <c r="F36" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" t="s">
-        <v>87</v>
-      </c>
       <c r="H36" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I36" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s">
         <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D37" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E37" t="s">
+        <v>606</v>
+      </c>
+      <c r="F37" t="s">
+        <v>607</v>
+      </c>
+      <c r="G37" t="s">
         <v>85</v>
       </c>
-      <c r="F37" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" t="s">
-        <v>87</v>
-      </c>
       <c r="H37" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I37" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B38" t="s">
         <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D38" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E38" t="s">
+        <v>606</v>
+      </c>
+      <c r="F38" t="s">
+        <v>607</v>
+      </c>
+      <c r="G38" t="s">
         <v>85</v>
       </c>
-      <c r="F38" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" t="s">
-        <v>87</v>
-      </c>
       <c r="H38" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I38" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B39" t="s">
         <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D39" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E39" t="s">
+        <v>606</v>
+      </c>
+      <c r="F39" t="s">
+        <v>607</v>
+      </c>
+      <c r="G39" t="s">
         <v>85</v>
       </c>
-      <c r="F39" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" t="s">
-        <v>87</v>
-      </c>
       <c r="H39" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I39" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B40" t="s">
         <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D40" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E40" t="s">
+        <v>606</v>
+      </c>
+      <c r="F40" t="s">
+        <v>607</v>
+      </c>
+      <c r="G40" t="s">
         <v>85</v>
       </c>
-      <c r="F40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" t="s">
-        <v>87</v>
-      </c>
       <c r="H40" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I40" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B41" t="s">
         <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D41" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E41" t="s">
+        <v>606</v>
+      </c>
+      <c r="F41" t="s">
+        <v>607</v>
+      </c>
+      <c r="G41" t="s">
         <v>85</v>
       </c>
-      <c r="F41" t="s">
-        <v>86</v>
-      </c>
-      <c r="G41" t="s">
-        <v>87</v>
-      </c>
       <c r="H41" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B42" t="s">
         <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D42" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E42" t="s">
+        <v>606</v>
+      </c>
+      <c r="F42" t="s">
+        <v>607</v>
+      </c>
+      <c r="G42" t="s">
         <v>85</v>
       </c>
-      <c r="F42" t="s">
-        <v>86</v>
-      </c>
-      <c r="G42" t="s">
-        <v>87</v>
-      </c>
       <c r="H42" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I42" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D43" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E43" t="s">
+        <v>606</v>
+      </c>
+      <c r="F43" t="s">
+        <v>607</v>
+      </c>
+      <c r="G43" t="s">
         <v>85</v>
       </c>
-      <c r="F43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" t="s">
-        <v>87</v>
-      </c>
       <c r="H43" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I43" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B44" t="s">
         <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D44" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E44" t="s">
+        <v>606</v>
+      </c>
+      <c r="F44" t="s">
+        <v>607</v>
+      </c>
+      <c r="G44" t="s">
         <v>85</v>
       </c>
-      <c r="F44" t="s">
-        <v>86</v>
-      </c>
-      <c r="G44" t="s">
-        <v>87</v>
-      </c>
       <c r="H44" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I44" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B45" t="s">
         <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D45" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E45" t="s">
+        <v>606</v>
+      </c>
+      <c r="F45" t="s">
+        <v>607</v>
+      </c>
+      <c r="G45" t="s">
         <v>85</v>
       </c>
-      <c r="F45" t="s">
-        <v>86</v>
-      </c>
-      <c r="G45" t="s">
-        <v>87</v>
-      </c>
       <c r="H45" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I45" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B46" t="s">
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D46" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E46" t="s">
+        <v>606</v>
+      </c>
+      <c r="F46" t="s">
+        <v>607</v>
+      </c>
+      <c r="G46" t="s">
         <v>85</v>
       </c>
-      <c r="F46" t="s">
-        <v>86</v>
-      </c>
-      <c r="G46" t="s">
-        <v>87</v>
-      </c>
       <c r="H46" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I46" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B47" t="s">
         <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D47" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E47" t="s">
+        <v>606</v>
+      </c>
+      <c r="F47" t="s">
+        <v>607</v>
+      </c>
+      <c r="G47" t="s">
         <v>85</v>
       </c>
-      <c r="F47" t="s">
-        <v>86</v>
-      </c>
-      <c r="G47" t="s">
-        <v>87</v>
-      </c>
       <c r="H47" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I47" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B48" t="s">
         <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D48" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E48" t="s">
+        <v>606</v>
+      </c>
+      <c r="F48" t="s">
+        <v>607</v>
+      </c>
+      <c r="G48" t="s">
         <v>85</v>
       </c>
-      <c r="F48" t="s">
-        <v>86</v>
-      </c>
-      <c r="G48" t="s">
-        <v>87</v>
-      </c>
       <c r="H48" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I48" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B49" t="s">
         <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D49" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E49" t="s">
+        <v>606</v>
+      </c>
+      <c r="F49" t="s">
+        <v>607</v>
+      </c>
+      <c r="G49" t="s">
         <v>85</v>
       </c>
-      <c r="F49" t="s">
-        <v>86</v>
-      </c>
-      <c r="G49" t="s">
-        <v>87</v>
-      </c>
       <c r="H49" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I49" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B50" t="s">
         <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D50" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E50" t="s">
+        <v>606</v>
+      </c>
+      <c r="F50" t="s">
+        <v>607</v>
+      </c>
+      <c r="G50" t="s">
         <v>85</v>
       </c>
-      <c r="F50" t="s">
-        <v>86</v>
-      </c>
-      <c r="G50" t="s">
-        <v>87</v>
-      </c>
       <c r="H50" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I50" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B51" t="s">
         <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D51" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E51" t="s">
+        <v>606</v>
+      </c>
+      <c r="F51" t="s">
+        <v>607</v>
+      </c>
+      <c r="G51" t="s">
         <v>85</v>
       </c>
-      <c r="F51" t="s">
-        <v>86</v>
-      </c>
-      <c r="G51" t="s">
-        <v>87</v>
-      </c>
       <c r="H51" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I51" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B52" t="s">
         <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D52" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E52" t="s">
+        <v>606</v>
+      </c>
+      <c r="F52" t="s">
+        <v>607</v>
+      </c>
+      <c r="G52" t="s">
         <v>85</v>
       </c>
-      <c r="F52" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" t="s">
-        <v>87</v>
-      </c>
       <c r="H52" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B53" t="s">
         <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D53" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E53" t="s">
+        <v>606</v>
+      </c>
+      <c r="F53" t="s">
+        <v>607</v>
+      </c>
+      <c r="G53" t="s">
         <v>85</v>
       </c>
-      <c r="F53" t="s">
-        <v>86</v>
-      </c>
-      <c r="G53" t="s">
-        <v>87</v>
-      </c>
       <c r="H53" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I53" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B54" t="s">
         <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D54" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E54" t="s">
+        <v>606</v>
+      </c>
+      <c r="F54" t="s">
+        <v>607</v>
+      </c>
+      <c r="G54" t="s">
         <v>85</v>
       </c>
-      <c r="F54" t="s">
-        <v>86</v>
-      </c>
-      <c r="G54" t="s">
-        <v>87</v>
-      </c>
       <c r="H54" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I54" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B55" t="s">
         <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D55" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E55" t="s">
+        <v>606</v>
+      </c>
+      <c r="F55" t="s">
+        <v>607</v>
+      </c>
+      <c r="G55" t="s">
         <v>85</v>
       </c>
-      <c r="F55" t="s">
-        <v>86</v>
-      </c>
-      <c r="G55" t="s">
-        <v>87</v>
-      </c>
       <c r="H55" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I55" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B56" t="s">
         <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D56" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E56" t="s">
+        <v>606</v>
+      </c>
+      <c r="F56" t="s">
+        <v>607</v>
+      </c>
+      <c r="G56" t="s">
         <v>85</v>
       </c>
-      <c r="F56" t="s">
-        <v>86</v>
-      </c>
-      <c r="G56" t="s">
-        <v>87</v>
-      </c>
       <c r="H56" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I56" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B57" t="s">
         <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D57" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E57" t="s">
+        <v>606</v>
+      </c>
+      <c r="F57" t="s">
+        <v>607</v>
+      </c>
+      <c r="G57" t="s">
         <v>85</v>
       </c>
-      <c r="F57" t="s">
-        <v>86</v>
-      </c>
-      <c r="G57" t="s">
-        <v>87</v>
-      </c>
       <c r="H57" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I57" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B58" t="s">
         <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D58" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E58" t="s">
+        <v>606</v>
+      </c>
+      <c r="F58" t="s">
+        <v>607</v>
+      </c>
+      <c r="G58" t="s">
         <v>85</v>
       </c>
-      <c r="F58" t="s">
-        <v>86</v>
-      </c>
-      <c r="G58" t="s">
-        <v>87</v>
-      </c>
       <c r="H58" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I58" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B59" t="s">
         <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D59" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E59" t="s">
+        <v>606</v>
+      </c>
+      <c r="F59" t="s">
+        <v>607</v>
+      </c>
+      <c r="G59" t="s">
         <v>85</v>
       </c>
-      <c r="F59" t="s">
-        <v>86</v>
-      </c>
-      <c r="G59" t="s">
-        <v>87</v>
-      </c>
       <c r="H59" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I59" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B60" t="s">
         <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D60" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E60" t="s">
+        <v>606</v>
+      </c>
+      <c r="F60" t="s">
+        <v>607</v>
+      </c>
+      <c r="G60" t="s">
         <v>85</v>
       </c>
-      <c r="F60" t="s">
-        <v>86</v>
-      </c>
-      <c r="G60" t="s">
-        <v>87</v>
-      </c>
       <c r="H60" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I60" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B61" t="s">
         <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D61" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E61" t="s">
+        <v>606</v>
+      </c>
+      <c r="F61" t="s">
+        <v>607</v>
+      </c>
+      <c r="G61" t="s">
         <v>85</v>
       </c>
-      <c r="F61" t="s">
-        <v>86</v>
-      </c>
-      <c r="G61" t="s">
-        <v>87</v>
-      </c>
       <c r="H61" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I61" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -10411,7 +10417,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10427,13 +10433,13 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -10481,10 +10487,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10496,10 +10502,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -10511,10 +10517,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -10526,10 +10532,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -10541,10 +10547,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -10556,10 +10562,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -10571,10 +10577,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -10586,10 +10592,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -10600,11 +10606,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C234"/>
+  <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A237" sqref="A237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10639,7 +10645,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -10650,7 +10656,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -10661,7 +10667,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -10672,7 +10678,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -10683,7 +10689,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -10694,7 +10700,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -10705,7 +10711,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -10716,7 +10722,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -10727,7 +10733,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -10738,7 +10744,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -10749,7 +10755,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -10760,7 +10766,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -10771,7 +10777,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -10782,7 +10788,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -10793,7 +10799,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -10804,7 +10810,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -10815,7 +10821,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -10826,7 +10832,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -10837,7 +10843,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -10859,7 +10865,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -10870,7 +10876,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -10881,7 +10887,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -10892,7 +10898,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -10903,7 +10909,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -10914,7 +10920,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -10925,7 +10931,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -10936,7 +10942,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -10947,7 +10953,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -10958,7 +10964,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -10969,7 +10975,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -10980,7 +10986,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -10991,7 +10997,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -11002,7 +11008,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -11013,7 +11019,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -11024,7 +11030,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -11035,7 +11041,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -11046,7 +11052,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -11057,7 +11063,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -11079,7 +11085,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
         <v>32</v>
@@ -11090,7 +11096,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
@@ -11101,7 +11107,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s">
         <v>32</v>
@@ -11112,7 +11118,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
@@ -11123,7 +11129,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s">
         <v>32</v>
@@ -11134,7 +11140,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
@@ -11145,7 +11151,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B49" t="s">
         <v>32</v>
@@ -11156,7 +11162,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B50" t="s">
         <v>32</v>
@@ -11167,7 +11173,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
@@ -11178,7 +11184,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
@@ -11189,7 +11195,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
@@ -11200,7 +11206,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s">
         <v>32</v>
@@ -11211,7 +11217,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
@@ -11222,7 +11228,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
@@ -11233,7 +11239,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B57" t="s">
         <v>32</v>
@@ -11244,7 +11250,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B58" t="s">
         <v>32</v>
@@ -11255,7 +11261,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B59" t="s">
         <v>32</v>
@@ -11266,7 +11272,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B60" t="s">
         <v>32</v>
@@ -11277,7 +11283,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B61" t="s">
         <v>32</v>
@@ -11299,7 +11305,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
@@ -11310,7 +11316,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
@@ -11321,7 +11327,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -11332,7 +11338,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -11343,7 +11349,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -11354,7 +11360,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -11365,7 +11371,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -11376,7 +11382,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -11387,7 +11393,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -11398,7 +11404,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
@@ -11409,7 +11415,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -11420,7 +11426,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
@@ -11431,7 +11437,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
@@ -11442,7 +11448,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -11453,7 +11459,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
@@ -11464,7 +11470,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -11475,7 +11481,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -11486,7 +11492,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
@@ -11497,7 +11503,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
@@ -11508,7 +11514,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>79</v>
@@ -11519,7 +11525,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>79</v>
@@ -11530,7 +11536,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>79</v>
@@ -11541,7 +11547,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>79</v>
@@ -11552,7 +11558,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>79</v>
@@ -11563,7 +11569,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>79</v>
@@ -11574,7 +11580,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>79</v>
@@ -11585,7 +11591,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>79</v>
@@ -11596,7 +11602,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>79</v>
@@ -11607,7 +11613,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>79</v>
@@ -11618,7 +11624,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>79</v>
@@ -11629,7 +11635,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>79</v>
@@ -11640,7 +11646,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>79</v>
@@ -11651,7 +11657,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>79</v>
@@ -11662,7 +11668,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>79</v>
@@ -11673,7 +11679,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>79</v>
@@ -11684,7 +11690,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>79</v>
@@ -11695,7 +11701,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>79</v>
@@ -11706,7 +11712,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>79</v>
@@ -11717,7 +11723,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>79</v>
@@ -11728,7 +11734,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>81</v>
@@ -11739,7 +11745,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>81</v>
@@ -11750,7 +11756,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>81</v>
@@ -11761,7 +11767,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>81</v>
@@ -11772,7 +11778,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>81</v>
@@ -11783,7 +11789,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>81</v>
@@ -11794,7 +11800,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>81</v>
@@ -11805,7 +11811,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>81</v>
@@ -11816,7 +11822,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>81</v>
@@ -11827,7 +11833,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>81</v>
@@ -11838,7 +11844,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>81</v>
@@ -11849,7 +11855,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>81</v>
@@ -11860,7 +11866,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>81</v>
@@ -11871,7 +11877,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>81</v>
@@ -11882,7 +11888,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>81</v>
@@ -11893,7 +11899,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>81</v>
@@ -11904,7 +11910,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>81</v>
@@ -11915,7 +11921,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>81</v>
@@ -11926,7 +11932,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>81</v>
@@ -11937,7 +11943,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>81</v>
@@ -11948,7 +11954,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>79</v>
@@ -11959,7 +11965,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>79</v>
@@ -11970,7 +11976,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>79</v>
@@ -11981,7 +11987,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>79</v>
@@ -11992,7 +11998,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>79</v>
@@ -12003,7 +12009,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>79</v>
@@ -12014,7 +12020,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>79</v>
@@ -12025,7 +12031,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>79</v>
@@ -12036,7 +12042,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>79</v>
@@ -12047,7 +12053,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>79</v>
@@ -12058,7 +12064,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>79</v>
@@ -12069,7 +12075,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>79</v>
@@ -12080,7 +12086,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>79</v>
@@ -12091,7 +12097,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>79</v>
@@ -12102,7 +12108,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>79</v>
@@ -12113,7 +12119,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>79</v>
@@ -12124,7 +12130,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>79</v>
@@ -12135,7 +12141,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>79</v>
@@ -12146,7 +12152,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>79</v>
@@ -12157,7 +12163,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>79</v>
@@ -12179,7 +12185,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B143" s="16" t="s">
         <v>22</v>
@@ -12190,7 +12196,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B144" s="16" t="s">
         <v>22</v>
@@ -12201,7 +12207,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B145" s="16" t="s">
         <v>22</v>
@@ -12212,7 +12218,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B146" s="16" t="s">
         <v>22</v>
@@ -12223,7 +12229,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B147" s="16" t="s">
         <v>22</v>
@@ -12234,7 +12240,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B148" s="16" t="s">
         <v>22</v>
@@ -12245,7 +12251,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B149" s="16" t="s">
         <v>22</v>
@@ -12256,7 +12262,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B150" s="16" t="s">
         <v>22</v>
@@ -12267,7 +12273,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B151" s="16" t="s">
         <v>22</v>
@@ -12278,7 +12284,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B152" s="16" t="s">
         <v>22</v>
@@ -12289,7 +12295,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B153" s="16" t="s">
         <v>22</v>
@@ -12300,7 +12306,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B154" s="16" t="s">
         <v>22</v>
@@ -12311,7 +12317,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B155" s="16" t="s">
         <v>22</v>
@@ -12322,7 +12328,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B156" s="16" t="s">
         <v>22</v>
@@ -12333,7 +12339,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B157" s="16" t="s">
         <v>22</v>
@@ -12344,7 +12350,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B158" s="16" t="s">
         <v>22</v>
@@ -12355,7 +12361,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B159" s="16" t="s">
         <v>22</v>
@@ -12366,7 +12372,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B160" s="16" t="s">
         <v>22</v>
@@ -12377,7 +12383,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B161" s="16" t="s">
         <v>22</v>
@@ -12388,7 +12394,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B163" t="s">
         <v>32</v>
@@ -12399,7 +12405,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>81</v>
@@ -12410,7 +12416,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B165" t="s">
         <v>22</v>
@@ -12421,10 +12427,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C166" t="b">
         <v>1</v>
@@ -12432,7 +12438,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B167" t="s">
         <v>32</v>
@@ -12443,7 +12449,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B168" s="9" t="s">
         <v>81</v>
@@ -12454,7 +12460,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
@@ -12465,10 +12471,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C170" t="b">
         <v>1</v>
@@ -12476,7 +12482,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B171" t="s">
         <v>32</v>
@@ -12487,7 +12493,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>81</v>
@@ -12498,7 +12504,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B173" t="s">
         <v>22</v>
@@ -12509,10 +12515,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C174" t="b">
         <v>1</v>
@@ -12520,7 +12526,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B175" t="s">
         <v>32</v>
@@ -12531,7 +12537,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>81</v>
@@ -12542,7 +12548,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B177" t="s">
         <v>22</v>
@@ -12553,10 +12559,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C178" t="b">
         <v>1</v>
@@ -12564,7 +12570,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B179" t="s">
         <v>32</v>
@@ -12575,7 +12581,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>81</v>
@@ -12586,7 +12592,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B181" t="s">
         <v>22</v>
@@ -12597,10 +12603,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C182" t="b">
         <v>1</v>
@@ -12608,7 +12614,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B183" t="s">
         <v>32</v>
@@ -12619,7 +12625,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>81</v>
@@ -12630,7 +12636,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B185" t="s">
         <v>22</v>
@@ -12641,10 +12647,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C186" t="b">
         <v>1</v>
@@ -12652,7 +12658,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B187" t="s">
         <v>32</v>
@@ -12663,7 +12669,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B188" s="9" t="s">
         <v>81</v>
@@ -12674,7 +12680,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B189" t="s">
         <v>22</v>
@@ -12685,10 +12691,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C190" t="b">
         <v>1</v>
@@ -12696,7 +12702,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B191" t="s">
         <v>32</v>
@@ -12707,7 +12713,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>81</v>
@@ -12718,7 +12724,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B193" t="s">
         <v>22</v>
@@ -12729,10 +12735,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C194" t="b">
         <v>1</v>
@@ -12740,7 +12746,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B195" t="s">
         <v>32</v>
@@ -12751,7 +12757,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B196" s="9" t="s">
         <v>81</v>
@@ -12762,7 +12768,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B197" t="s">
         <v>22</v>
@@ -12773,10 +12779,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C198" t="b">
         <v>1</v>
@@ -12784,7 +12790,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B199" t="s">
         <v>32</v>
@@ -12795,7 +12801,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>81</v>
@@ -12806,7 +12812,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B201" t="s">
         <v>22</v>
@@ -12817,10 +12823,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C202" t="b">
         <v>1</v>
@@ -12828,7 +12834,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B203" t="s">
         <v>32</v>
@@ -12839,7 +12845,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B204" s="9" t="s">
         <v>81</v>
@@ -12850,7 +12856,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B205" t="s">
         <v>22</v>
@@ -12861,10 +12867,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C206" t="b">
         <v>1</v>
@@ -12872,7 +12878,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B207" t="s">
         <v>32</v>
@@ -12883,7 +12889,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B208" s="9" t="s">
         <v>81</v>
@@ -12894,7 +12900,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B209" t="s">
         <v>22</v>
@@ -12905,10 +12911,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C210" t="b">
         <v>1</v>
@@ -12916,7 +12922,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B211" t="s">
         <v>32</v>
@@ -12927,7 +12933,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B212" s="9" t="s">
         <v>81</v>
@@ -12938,7 +12944,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B213" t="s">
         <v>22</v>
@@ -12949,10 +12955,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C214" t="b">
         <v>1</v>
@@ -12960,7 +12966,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B215" t="s">
         <v>32</v>
@@ -12971,7 +12977,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B216" s="9" t="s">
         <v>81</v>
@@ -12982,7 +12988,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B217" t="s">
         <v>22</v>
@@ -12993,10 +12999,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C218" t="b">
         <v>1</v>
@@ -13004,7 +13010,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B219" t="s">
         <v>32</v>
@@ -13015,7 +13021,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B220" s="9" t="s">
         <v>81</v>
@@ -13026,7 +13032,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B221" t="s">
         <v>22</v>
@@ -13037,10 +13043,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C222" t="b">
         <v>1</v>
@@ -13059,7 +13065,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B224" s="9" t="s">
         <v>22</v>
@@ -13070,7 +13076,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B225" s="9" t="s">
         <v>22</v>
@@ -13081,7 +13087,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B226" s="9" t="s">
         <v>22</v>
@@ -13092,7 +13098,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B227" t="s">
         <v>32</v>
@@ -13103,7 +13109,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>81</v>
@@ -13114,7 +13120,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B229" t="s">
         <v>22</v>
@@ -13125,10 +13131,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C230" t="b">
         <v>1</v>
@@ -13139,7 +13145,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>103</v>
+        <v>603</v>
       </c>
       <c r="B232" s="16" t="s">
         <v>25</v>
@@ -13150,7 +13156,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B233" t="s">
         <v>32</v>
@@ -13161,12 +13167,34 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B234" t="s">
         <v>25</v>
       </c>
       <c r="C234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>604</v>
+      </c>
+      <c r="B235" t="s">
+        <v>25</v>
+      </c>
+      <c r="C235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>605</v>
+      </c>
+      <c r="B236" t="s">
+        <v>25</v>
+      </c>
+      <c r="C236" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/VAC/forms/VAC/VAC.xlsx
+++ b/app/config/tables/VAC/forms/VAC/VAC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCB11E8-C415-4B55-B219-1F5309EAAD19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7084833B-31EA-43BC-BB8D-CB9BA71B0CA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="609">
   <si>
     <t>setting_name</t>
   </si>
@@ -1910,12 +1910,6 @@
     <t>VAC</t>
   </si>
   <si>
-    <t>Vaccines - women</t>
-  </si>
-  <si>
-    <t>Vacinas - mulhers</t>
-  </si>
-  <si>
     <t>VISITID</t>
   </si>
   <si>
@@ -1935,6 +1929,15 @@
   </si>
   <si>
     <t>[data('REGID')]</t>
+  </si>
+  <si>
+    <t>Vaccines</t>
+  </si>
+  <si>
+    <t>Vacinas</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -2350,7 +2353,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2412,10 +2415,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="D5" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8591,7 +8594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
@@ -8650,10 +8653,10 @@
         <v>598</v>
       </c>
       <c r="E2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G2" t="s">
         <v>85</v>
@@ -8679,10 +8682,10 @@
         <v>598</v>
       </c>
       <c r="E3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G3" t="s">
         <v>85</v>
@@ -8708,10 +8711,10 @@
         <v>598</v>
       </c>
       <c r="E4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G4" t="s">
         <v>85</v>
@@ -8737,10 +8740,10 @@
         <v>598</v>
       </c>
       <c r="E5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G5" t="s">
         <v>85</v>
@@ -8766,10 +8769,10 @@
         <v>598</v>
       </c>
       <c r="E6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G6" t="s">
         <v>85</v>
@@ -8795,10 +8798,10 @@
         <v>598</v>
       </c>
       <c r="E7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G7" t="s">
         <v>85</v>
@@ -8824,10 +8827,10 @@
         <v>598</v>
       </c>
       <c r="E8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G8" t="s">
         <v>85</v>
@@ -8853,10 +8856,10 @@
         <v>598</v>
       </c>
       <c r="E9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F9" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G9" t="s">
         <v>85</v>
@@ -8882,10 +8885,10 @@
         <v>598</v>
       </c>
       <c r="E10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G10" t="s">
         <v>85</v>
@@ -8911,10 +8914,10 @@
         <v>598</v>
       </c>
       <c r="E11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G11" t="s">
         <v>85</v>
@@ -8940,10 +8943,10 @@
         <v>598</v>
       </c>
       <c r="E12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G12" t="s">
         <v>85</v>
@@ -8969,10 +8972,10 @@
         <v>598</v>
       </c>
       <c r="E13" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F13" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G13" t="s">
         <v>85</v>
@@ -8998,10 +9001,10 @@
         <v>598</v>
       </c>
       <c r="E14" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F14" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G14" t="s">
         <v>85</v>
@@ -9027,10 +9030,10 @@
         <v>598</v>
       </c>
       <c r="E15" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F15" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G15" t="s">
         <v>85</v>
@@ -9056,10 +9059,10 @@
         <v>598</v>
       </c>
       <c r="E16" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F16" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G16" t="s">
         <v>85</v>
@@ -9085,10 +9088,10 @@
         <v>598</v>
       </c>
       <c r="E17" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F17" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G17" t="s">
         <v>85</v>
@@ -9114,10 +9117,10 @@
         <v>598</v>
       </c>
       <c r="E18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F18" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G18" t="s">
         <v>85</v>
@@ -9143,10 +9146,10 @@
         <v>598</v>
       </c>
       <c r="E19" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F19" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G19" t="s">
         <v>85</v>
@@ -9172,10 +9175,10 @@
         <v>598</v>
       </c>
       <c r="E20" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F20" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G20" t="s">
         <v>85</v>
@@ -9201,10 +9204,10 @@
         <v>598</v>
       </c>
       <c r="E21" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F21" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G21" t="s">
         <v>85</v>
@@ -9230,10 +9233,10 @@
         <v>598</v>
       </c>
       <c r="E22" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F22" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G22" t="s">
         <v>85</v>
@@ -9259,10 +9262,10 @@
         <v>598</v>
       </c>
       <c r="E23" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G23" t="s">
         <v>85</v>
@@ -9288,10 +9291,10 @@
         <v>598</v>
       </c>
       <c r="E24" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F24" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G24" t="s">
         <v>85</v>
@@ -9317,10 +9320,10 @@
         <v>598</v>
       </c>
       <c r="E25" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F25" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G25" t="s">
         <v>85</v>
@@ -9346,10 +9349,10 @@
         <v>598</v>
       </c>
       <c r="E26" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F26" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G26" t="s">
         <v>85</v>
@@ -9375,10 +9378,10 @@
         <v>598</v>
       </c>
       <c r="E27" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F27" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G27" t="s">
         <v>85</v>
@@ -9404,10 +9407,10 @@
         <v>598</v>
       </c>
       <c r="E28" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F28" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G28" t="s">
         <v>85</v>
@@ -9433,10 +9436,10 @@
         <v>598</v>
       </c>
       <c r="E29" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F29" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G29" t="s">
         <v>85</v>
@@ -9462,10 +9465,10 @@
         <v>598</v>
       </c>
       <c r="E30" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F30" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G30" t="s">
         <v>85</v>
@@ -9491,10 +9494,10 @@
         <v>598</v>
       </c>
       <c r="E31" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F31" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G31" t="s">
         <v>85</v>
@@ -9520,10 +9523,10 @@
         <v>598</v>
       </c>
       <c r="E32" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F32" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G32" t="s">
         <v>85</v>
@@ -9549,10 +9552,10 @@
         <v>598</v>
       </c>
       <c r="E33" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G33" t="s">
         <v>85</v>
@@ -9578,10 +9581,10 @@
         <v>598</v>
       </c>
       <c r="E34" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F34" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G34" t="s">
         <v>85</v>
@@ -9607,10 +9610,10 @@
         <v>598</v>
       </c>
       <c r="E35" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F35" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G35" t="s">
         <v>85</v>
@@ -9636,10 +9639,10 @@
         <v>598</v>
       </c>
       <c r="E36" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F36" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G36" t="s">
         <v>85</v>
@@ -9665,10 +9668,10 @@
         <v>598</v>
       </c>
       <c r="E37" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F37" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G37" t="s">
         <v>85</v>
@@ -9694,10 +9697,10 @@
         <v>598</v>
       </c>
       <c r="E38" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F38" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G38" t="s">
         <v>85</v>
@@ -9723,10 +9726,10 @@
         <v>598</v>
       </c>
       <c r="E39" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F39" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G39" t="s">
         <v>85</v>
@@ -9752,10 +9755,10 @@
         <v>598</v>
       </c>
       <c r="E40" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F40" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G40" t="s">
         <v>85</v>
@@ -9781,10 +9784,10 @@
         <v>598</v>
       </c>
       <c r="E41" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F41" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G41" t="s">
         <v>85</v>
@@ -9810,10 +9813,10 @@
         <v>598</v>
       </c>
       <c r="E42" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F42" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G42" t="s">
         <v>85</v>
@@ -9839,10 +9842,10 @@
         <v>598</v>
       </c>
       <c r="E43" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F43" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G43" t="s">
         <v>85</v>
@@ -9868,10 +9871,10 @@
         <v>598</v>
       </c>
       <c r="E44" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F44" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G44" t="s">
         <v>85</v>
@@ -9897,10 +9900,10 @@
         <v>598</v>
       </c>
       <c r="E45" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F45" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G45" t="s">
         <v>85</v>
@@ -9926,10 +9929,10 @@
         <v>598</v>
       </c>
       <c r="E46" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F46" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G46" t="s">
         <v>85</v>
@@ -9955,10 +9958,10 @@
         <v>598</v>
       </c>
       <c r="E47" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F47" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G47" t="s">
         <v>85</v>
@@ -9984,10 +9987,10 @@
         <v>598</v>
       </c>
       <c r="E48" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F48" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G48" t="s">
         <v>85</v>
@@ -10013,10 +10016,10 @@
         <v>598</v>
       </c>
       <c r="E49" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F49" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G49" t="s">
         <v>85</v>
@@ -10042,10 +10045,10 @@
         <v>598</v>
       </c>
       <c r="E50" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F50" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G50" t="s">
         <v>85</v>
@@ -10071,10 +10074,10 @@
         <v>598</v>
       </c>
       <c r="E51" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F51" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G51" t="s">
         <v>85</v>
@@ -10100,10 +10103,10 @@
         <v>598</v>
       </c>
       <c r="E52" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F52" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G52" t="s">
         <v>85</v>
@@ -10129,10 +10132,10 @@
         <v>598</v>
       </c>
       <c r="E53" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F53" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G53" t="s">
         <v>85</v>
@@ -10158,10 +10161,10 @@
         <v>598</v>
       </c>
       <c r="E54" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F54" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G54" t="s">
         <v>85</v>
@@ -10187,10 +10190,10 @@
         <v>598</v>
       </c>
       <c r="E55" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F55" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G55" t="s">
         <v>85</v>
@@ -10216,10 +10219,10 @@
         <v>598</v>
       </c>
       <c r="E56" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F56" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G56" t="s">
         <v>85</v>
@@ -10245,10 +10248,10 @@
         <v>598</v>
       </c>
       <c r="E57" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F57" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G57" t="s">
         <v>85</v>
@@ -10274,10 +10277,10 @@
         <v>598</v>
       </c>
       <c r="E58" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F58" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G58" t="s">
         <v>85</v>
@@ -10303,10 +10306,10 @@
         <v>598</v>
       </c>
       <c r="E59" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F59" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G59" t="s">
         <v>85</v>
@@ -10332,10 +10335,10 @@
         <v>598</v>
       </c>
       <c r="E60" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F60" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G60" t="s">
         <v>85</v>
@@ -10361,10 +10364,10 @@
         <v>598</v>
       </c>
       <c r="E61" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F61" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G61" t="s">
         <v>85</v>
@@ -10608,9 +10611,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A237" sqref="A237"/>
+      <selection pane="bottomLeft" activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13145,10 +13148,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>25</v>
+        <v>608</v>
       </c>
       <c r="C232" t="b">
         <v>0</v>
@@ -13156,7 +13159,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B233" t="s">
         <v>32</v>
@@ -13167,10 +13170,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B234" t="s">
-        <v>25</v>
+        <v>608</v>
       </c>
       <c r="C234" t="b">
         <v>0</v>
@@ -13178,10 +13181,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B235" t="s">
-        <v>25</v>
+        <v>608</v>
       </c>
       <c r="C235" t="b">
         <v>0</v>
@@ -13189,10 +13192,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B236" t="s">
-        <v>25</v>
+        <v>608</v>
       </c>
       <c r="C236" t="b">
         <v>0</v>

--- a/app/config/tables/VAC/forms/VAC/VAC.xlsx
+++ b/app/config/tables/VAC/forms/VAC/VAC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7084833B-31EA-43BC-BB8D-CB9BA71B0CA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FB0A47-0837-4E59-A458-DBD50DC33A90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="611">
   <si>
     <t>setting_name</t>
   </si>
@@ -1938,6 +1938,12 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>adate</t>
+  </si>
+  <si>
+    <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
   </si>
 </sst>
 </file>
@@ -2470,8 +2476,8 @@
   <dimension ref="A1:J624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A614" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D632" sqref="D632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2684,7 +2690,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F17" t="s">
         <v>68</v>
@@ -2787,7 +2793,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F28" t="s">
         <v>68</v>
@@ -2984,7 +2990,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F48" t="s">
         <v>89</v>
@@ -3090,7 +3096,7 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F59" t="s">
         <v>89</v>
@@ -3287,7 +3293,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F79" t="s">
         <v>149</v>
@@ -3390,7 +3396,7 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F90" t="s">
         <v>149</v>
@@ -3587,7 +3593,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F110" t="s">
         <v>168</v>
@@ -3693,7 +3699,7 @@
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F121" t="s">
         <v>168</v>
@@ -3890,7 +3896,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F141" t="s">
         <v>194</v>
@@ -3993,7 +3999,7 @@
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F152" t="s">
         <v>194</v>
@@ -4190,7 +4196,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F172" t="s">
         <v>217</v>
@@ -4296,7 +4302,7 @@
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D183" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F183" t="s">
         <v>217</v>
@@ -4493,7 +4499,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F203" t="s">
         <v>239</v>
@@ -4596,7 +4602,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F214" t="s">
         <v>239</v>
@@ -4793,7 +4799,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F234" t="s">
         <v>261</v>
@@ -4899,7 +4905,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F245" t="s">
         <v>261</v>
@@ -5096,7 +5102,7 @@
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F265" t="s">
         <v>283</v>
@@ -5199,7 +5205,7 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F276" t="s">
         <v>283</v>
@@ -5396,7 +5402,7 @@
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D296" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F296" t="s">
         <v>305</v>
@@ -5502,7 +5508,7 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D307" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F307" t="s">
         <v>305</v>
@@ -5699,7 +5705,7 @@
     </row>
     <row r="327" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D327" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F327" t="s">
         <v>327</v>
@@ -5802,7 +5808,7 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D338" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F338" t="s">
         <v>327</v>
@@ -5999,7 +6005,7 @@
     </row>
     <row r="358" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D358" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F358" t="s">
         <v>349</v>
@@ -6105,7 +6111,7 @@
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D369" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F369" t="s">
         <v>349</v>
@@ -6302,7 +6308,7 @@
     </row>
     <row r="389" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D389" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F389" t="s">
         <v>371</v>
@@ -6405,7 +6411,7 @@
     </row>
     <row r="400" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D400" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F400" t="s">
         <v>371</v>
@@ -6602,7 +6608,7 @@
     </row>
     <row r="420" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D420" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F420" t="s">
         <v>393</v>
@@ -6708,7 +6714,7 @@
     </row>
     <row r="431" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D431" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F431" t="s">
         <v>393</v>
@@ -6905,7 +6911,7 @@
     </row>
     <row r="451" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D451" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F451" t="s">
         <v>415</v>
@@ -7008,7 +7014,7 @@
     </row>
     <row r="462" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D462" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F462" t="s">
         <v>415</v>
@@ -7205,7 +7211,7 @@
     </row>
     <row r="482" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D482" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F482" t="s">
         <v>437</v>
@@ -7311,7 +7317,7 @@
     </row>
     <row r="493" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D493" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F493" t="s">
         <v>437</v>
@@ -7508,7 +7514,7 @@
     </row>
     <row r="513" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D513" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F513" t="s">
         <v>459</v>
@@ -7611,7 +7617,7 @@
     </row>
     <row r="524" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D524" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F524" t="s">
         <v>459</v>
@@ -7808,7 +7814,7 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D544" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F544" t="s">
         <v>481</v>
@@ -7914,7 +7920,7 @@
     </row>
     <row r="555" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D555" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F555" t="s">
         <v>481</v>
@@ -8111,7 +8117,7 @@
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D575" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F575" t="s">
         <v>503</v>
@@ -8214,7 +8220,7 @@
     </row>
     <row r="586" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D586" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F586" t="s">
         <v>503</v>
@@ -8411,7 +8417,7 @@
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D606" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F606" t="s">
         <v>525</v>
@@ -8517,7 +8523,7 @@
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D617" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="F617" t="s">
         <v>525</v>
@@ -10386,11 +10392,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9C5AA-9540-45DB-BCC0-5EA98DDA6B0B}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:D4"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10443,6 +10449,20 @@
       </c>
       <c r="D4" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -10612,8 +10632,8 @@
   <dimension ref="A1:C236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B233" sqref="B233"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C239" sqref="C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11080,7 +11100,7 @@
         <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -11091,7 +11111,7 @@
         <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -11102,7 +11122,7 @@
         <v>149</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -11113,7 +11133,7 @@
         <v>168</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -11124,7 +11144,7 @@
         <v>194</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -11135,7 +11155,7 @@
         <v>217</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -11146,7 +11166,7 @@
         <v>239</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -11157,7 +11177,7 @@
         <v>261</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -11168,7 +11188,7 @@
         <v>283</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -11179,7 +11199,7 @@
         <v>305</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -11190,7 +11210,7 @@
         <v>327</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -11201,7 +11221,7 @@
         <v>349</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -11212,7 +11232,7 @@
         <v>371</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -11223,7 +11243,7 @@
         <v>393</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -11234,7 +11254,7 @@
         <v>415</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -11245,7 +11265,7 @@
         <v>437</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -11256,7 +11276,7 @@
         <v>459</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -11267,7 +11287,7 @@
         <v>481</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -11278,7 +11298,7 @@
         <v>503</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -11289,7 +11309,7 @@
         <v>525</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -12400,7 +12420,7 @@
         <v>533</v>
       </c>
       <c r="B163" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C163" t="b">
         <v>0</v>
@@ -12444,7 +12464,7 @@
         <v>538</v>
       </c>
       <c r="B167" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C167" t="b">
         <v>0</v>
@@ -12488,7 +12508,7 @@
         <v>542</v>
       </c>
       <c r="B171" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C171" t="b">
         <v>0</v>
@@ -12532,7 +12552,7 @@
         <v>546</v>
       </c>
       <c r="B175" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C175" t="b">
         <v>0</v>
@@ -12576,7 +12596,7 @@
         <v>550</v>
       </c>
       <c r="B179" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C179" t="b">
         <v>0</v>
@@ -12620,7 +12640,7 @@
         <v>554</v>
       </c>
       <c r="B183" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C183" t="b">
         <v>0</v>
@@ -12664,7 +12684,7 @@
         <v>558</v>
       </c>
       <c r="B187" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C187" t="b">
         <v>0</v>
@@ -12708,7 +12728,7 @@
         <v>562</v>
       </c>
       <c r="B191" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C191" t="b">
         <v>0</v>
@@ -12752,7 +12772,7 @@
         <v>566</v>
       </c>
       <c r="B195" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C195" t="b">
         <v>0</v>
@@ -12796,7 +12816,7 @@
         <v>570</v>
       </c>
       <c r="B199" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C199" t="b">
         <v>0</v>
@@ -12840,7 +12860,7 @@
         <v>574</v>
       </c>
       <c r="B203" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
@@ -12884,7 +12904,7 @@
         <v>578</v>
       </c>
       <c r="B207" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C207" t="b">
         <v>0</v>
@@ -12928,7 +12948,7 @@
         <v>582</v>
       </c>
       <c r="B211" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C211" t="b">
         <v>0</v>
@@ -12972,7 +12992,7 @@
         <v>586</v>
       </c>
       <c r="B215" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C215" t="b">
         <v>0</v>
@@ -13016,7 +13036,7 @@
         <v>590</v>
       </c>
       <c r="B219" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C219" t="b">
         <v>0</v>
@@ -13104,7 +13124,7 @@
         <v>594</v>
       </c>
       <c r="B227" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C227" t="b">
         <v>0</v>
@@ -13162,7 +13182,7 @@
         <v>600</v>
       </c>
       <c r="B233" t="s">
-        <v>32</v>
+        <v>609</v>
       </c>
       <c r="C233" t="b">
         <v>0</v>

--- a/app/config/tables/VAC/forms/VAC/VAC.xlsx
+++ b/app/config/tables/VAC/forms/VAC/VAC.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FB0A47-0837-4E59-A458-DBD50DC33A90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA59CFE-CD70-477C-9D39-6E172F955D73}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -2475,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:J624"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A614" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D632" sqref="D632"/>
     </sheetView>
   </sheetViews>
@@ -10631,9 +10631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C239" sqref="C239"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/VAC/forms/VAC/VAC.xlsx
+++ b/app/config/tables/VAC/forms/VAC/VAC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA59CFE-CD70-477C-9D39-6E172F955D73}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D99CC77-E275-4461-AE52-93423B2952EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="611">
   <si>
     <t>setting_name</t>
   </si>
@@ -2475,7 +2475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:J624"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D632" sqref="D632"/>
     </sheetView>
@@ -10629,11 +10629,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C236"/>
+  <dimension ref="A1:C232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B227" sqref="B227"/>
+      <selection pane="bottomLeft" activeCell="A223" sqref="A223:XFD226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13077,21 +13077,21 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>51</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>22</v>
+        <v>594</v>
+      </c>
+      <c r="B223" t="s">
+        <v>609</v>
       </c>
       <c r="C223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>92</v>
+        <v>595</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C224" t="b">
         <v>1</v>
@@ -13099,54 +13099,46 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>143</v>
-      </c>
-      <c r="B225" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B225" t="s">
         <v>22</v>
       </c>
       <c r="C225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>170</v>
+        <v>597</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>22</v>
+        <v>537</v>
       </c>
       <c r="C226" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>594</v>
-      </c>
-      <c r="B227" t="s">
-        <v>609</v>
-      </c>
-      <c r="C227" t="b">
-        <v>0</v>
-      </c>
+      <c r="B227" s="9"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>595</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>81</v>
+        <v>601</v>
+      </c>
+      <c r="B228" s="16" t="s">
+        <v>608</v>
       </c>
       <c r="C228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B229" t="s">
-        <v>22</v>
+        <v>609</v>
       </c>
       <c r="C229" t="b">
         <v>0</v>
@@ -13154,70 +13146,34 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>597</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>537</v>
+        <v>599</v>
+      </c>
+      <c r="B230" t="s">
+        <v>608</v>
       </c>
       <c r="C230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B231" s="9"/>
+      <c r="A231" t="s">
+        <v>602</v>
+      </c>
+      <c r="B231" t="s">
+        <v>608</v>
+      </c>
+      <c r="C231" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>601</v>
-      </c>
-      <c r="B232" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="B232" t="s">
         <v>608</v>
       </c>
       <c r="C232" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>600</v>
-      </c>
-      <c r="B233" t="s">
-        <v>609</v>
-      </c>
-      <c r="C233" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>599</v>
-      </c>
-      <c r="B234" t="s">
-        <v>608</v>
-      </c>
-      <c r="C234" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>602</v>
-      </c>
-      <c r="B235" t="s">
-        <v>608</v>
-      </c>
-      <c r="C235" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>603</v>
-      </c>
-      <c r="B236" t="s">
-        <v>608</v>
-      </c>
-      <c r="C236" t="b">
         <v>0</v>
       </c>
     </row>
